--- a/config_11.24/item_config.xlsx
+++ b/config_11.24/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="662">
   <si>
     <t>id|行号</t>
   </si>
@@ -2670,6 +2670,18 @@
   </si>
   <si>
     <t>prop_gej_cs</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>eznhk_icon_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>eznhk_icon_4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>stgc_icon_bx2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3192,7 +3204,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C191" sqref="C191"/>
+      <selection pane="bottomLeft" activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9201,6 +9213,9 @@
       <c r="E182" s="23">
         <v>1</v>
       </c>
+      <c r="F182" s="23" t="s">
+        <v>659</v>
+      </c>
       <c r="G182" s="23">
         <v>1</v>
       </c>
@@ -9230,6 +9245,9 @@
       <c r="E183" s="23">
         <v>1</v>
       </c>
+      <c r="F183" s="23" t="s">
+        <v>660</v>
+      </c>
       <c r="G183" s="23">
         <v>1</v>
       </c>
@@ -9258,6 +9276,9 @@
       </c>
       <c r="E184" s="23">
         <v>1</v>
+      </c>
+      <c r="F184" s="23" t="s">
+        <v>661</v>
       </c>
       <c r="G184" s="23">
         <v>1</v>

--- a/config_11.24/item_config.xlsx
+++ b/config_11.24/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="776">
   <si>
     <t>id|行号</t>
   </si>
@@ -1484,805 +1484,1234 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>obj_fish_3d_free_bullet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_fish_3d_power_bullet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_fish_3d_crit_bullet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_fish_3d_time_free_power_bullet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_fish_3d_laser_bullet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_fish_3d_quick_shoot</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_fish_3d_drill_bullet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费子弹-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级火力-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍时刻-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超速子弹-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻头弹-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透子弹-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费超级火力-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_bd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_sd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利额度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_hytb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活跃度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常活跃</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_13000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于小游戏消耗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_zs_30y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_15y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_ctgd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_ctgd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_zh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bytx_zt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_danmf2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_danmf2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_sbsk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_sbsk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_cjhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_zt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_jg_skill</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_dan_bs08</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日福利券额度</t>
+  </si>
+  <si>
+    <t>宝箱可随机开出1000-15万金币。使用时间：2019年11月5日7:30至2019年11月11日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_secondary_bomb_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bymatch_game_btn_xbz</t>
+  </si>
+  <si>
+    <t>原子弹-浅水湾</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_super_bomb_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bymatch_game_btn_dbz</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级原子弹-浅水湾</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_secondary_bomb_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子弹-深海寻宝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_super_bomb_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级原子弹-深海寻宝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_secondary_bomb_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子弹-地底遗迹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_super_bomb_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级原子弹-地底遗迹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>师傅给与徒弟的免费激励宝箱可随机开出1000-15万金币。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>师傅给与徒弟的激励宝箱可随机开出1000-15万金币。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年1月24日-2月8日可开启宝箱，最多可获得10万金币。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤-3D捕鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费子弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级火力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍时刻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>超速子弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻头弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透子弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费超级火力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_fish_3d_pierce_bullet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_summon_fish</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_lock</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_frozen</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_frozen</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_flqcj","panel",1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpg_icon_shui</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于苹果大战种植</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于苹果大战种植</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpg_icon_yg</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_3</t>
+  </si>
+  <si>
+    <t>zpg_icon_cc</t>
+  </si>
+  <si>
+    <t>铲子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_4</t>
+  </si>
+  <si>
+    <t>zpg_icon_sc</t>
+  </si>
+  <si>
+    <t>除虫剂</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_5</t>
+  </si>
+  <si>
+    <t>zpg_icon_fl</t>
+  </si>
+  <si>
+    <t>肥料</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_mfcjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_5y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_50flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_200flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_500flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_1000flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_50flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_200flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_500flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_3d_1000flq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_4</t>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠白银宝箱（免费小额用户，V1-V3用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠黄金宝箱（免费小额用户，V1-V3用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠钻石宝箱（免费小额用户，V1-V3用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠白银宝箱（V4-V7用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠黄金宝箱（V4-V7用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠钻石宝箱（V4-V7用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠白银宝箱（V8-V10用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠黄金宝箱（V8-V10用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日特惠钻石宝箱（V8-V10用户）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_3</t>
+  </si>
+  <si>
+    <t>prop_cjlb_4</t>
+  </si>
+  <si>
+    <t>prop_cjlb_5</t>
+  </si>
+  <si>
+    <t>prop_cjlb_6</t>
+  </si>
+  <si>
+    <t>prop_cjlb_7</t>
+  </si>
+  <si>
+    <t>prop_cjlb_8</t>
+  </si>
+  <si>
+    <t>prop_cjlb_9</t>
+  </si>
+  <si>
+    <t>prop_xrcdj_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrcdj_2</t>
+  </si>
+  <si>
+    <t>prop_xrcdj_3</t>
+  </si>
+  <si>
+    <t>青铜抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于新人抽大奖中的青铜抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于新人抽大奖中的白银抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于新人抽大奖中的黄金抽奖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫七夕活动道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>_common_rank_true_love_026_rank</t>
+  </si>
+  <si>
+    <t>bblb_icon_xin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bblb_icon_xin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱排行榜积分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>真爱排行榜积分道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_pms_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xycd_icon_ty2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋活动道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xycd_sunshine</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>250福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000福利券赛门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加250福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加2500福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加25000福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于参加250000福利券赛的门票</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>银锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（V1-V3）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>银锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金锤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（V4-V7）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_silver_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤（v8-v10)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gold_hammer_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_brass_hammer_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_dhq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>畅玩礼包抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cwlb_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_031_aster</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆快乐活动掉落</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_icon_xx2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_3</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_1</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_3</t>
+  </si>
+  <si>
+    <t>初级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_1_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_3_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_1_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_3_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cyj_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_10</t>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_xrbx_1</t>
+  </si>
+  <si>
+    <t>新手宝箱</t>
+  </si>
+  <si>
+    <t>新人专享新手宝箱</t>
+  </si>
+  <si>
+    <t>prop_cjlb_11</t>
+  </si>
+  <si>
+    <t>act_033_xrzxlb_gjbx</t>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+  </si>
+  <si>
+    <t>新人专享高级宝箱</t>
+  </si>
+  <si>
+    <t>prop_cjlb_12</t>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_hhbx_1</t>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
+  </si>
+  <si>
+    <t>新人专享豪华宝箱</t>
+  </si>
+  <si>
+    <t>prop_11.11_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwzp_icon_cjq</t>
+  </si>
+  <si>
+    <t>cwzp_icon_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一抽奖券</t>
+  </si>
+  <si>
+    <t>双十一抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_5</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_4</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_5</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_4</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_5</t>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_4_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_5_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_4_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_5_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_4_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_5_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_1000114</t>
+  </si>
+  <si>
+    <t>ty_icon_hytb</t>
+  </si>
+  <si>
+    <t>积分</t>
+  </si>
+  <si>
+    <t>新人七天乐积分</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_accelerate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_wild</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_doubled</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍卡</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>以1.5倍的速度进行发炮，持续15秒。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼将获得双倍奖励，同时会提升消耗，持续15秒。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹获得双倍威力，同时会提升消耗，持续15秒。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_jb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_js</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_kb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩节火鸡道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩节稀有</t>
+  </si>
+  <si>
+    <t>感恩节史诗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩节传说</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hjhhl_iocn_jt</t>
+  </si>
+  <si>
+    <t>火鸡掉落物</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gej_ss</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gej_hj</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gej_xy</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>eznhk_icon_3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>eznhk_icon_4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>stgc_icon_bx2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_036_gelb","prop_gej_xy"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_036_gelb","prop_gej_ss"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_036_gelb","prop_gej_cs"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>tag|二进制
 1 大厅背包 
 2 捕鱼自由场背包
 4 捕鱼比赛场背包
 8 捕鱼3D自由场背包
+16 水族馆道具背包
 都显示相加即可</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>obj_fish_3d_free_bullet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_fish_3d_power_bullet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_fish_3d_crit_bullet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_fish_3d_time_free_power_bullet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_fish_3d_laser_bullet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_fish_3d_quick_shoot</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_fish_3d_drill_bullet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费子弹-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级火力-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍时刻-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超速子弹-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻头弹-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透子弹-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费超级火力-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_bd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_sd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利额度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_hytb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活跃度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常活跃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_13000</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_tiny_game_coin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏币</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于小游戏消耗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_yxb_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_zs_30y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_15y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_ctgd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_ctgd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_zh</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bytx_zt</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_danmf2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_danmf2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_sbsk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_sbsk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_cjhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_zt</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_jg_skill</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bygame_icon_dan_bs08</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日福利券额度</t>
-  </si>
-  <si>
-    <t>宝箱可随机开出1000-15万金币。使用时间：2019年11月5日7:30至2019年11月11日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_secondary_bomb_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bymatch_game_btn_xbz</t>
-  </si>
-  <si>
-    <t>原子弹-浅水湾</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_super_bomb_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bymatch_game_btn_dbz</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级原子弹-浅水湾</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_secondary_bomb_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>原子弹-深海寻宝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_super_bomb_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级原子弹-深海寻宝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_secondary_bomb_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>原子弹-地底遗迹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_super_bomb_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级原子弹-地底遗迹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>师傅给与徒弟的免费激励宝箱可随机开出1000-15万金币。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>师傅给与徒弟的激励宝箱可随机开出1000-15万金币。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年1月24日-2月8日可开启宝箱，最多可获得10万金币。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤-3D捕鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费子弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级火力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍时刻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>超速子弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻头弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透子弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁定</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰冻</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费超级火力</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_fish_3d_pierce_bullet</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_summon_fish</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_lock</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_frozen</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_frozen</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_lock</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_flqcj","panel",1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>zpg_icon_shui</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>水滴</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于苹果大战种植</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于苹果大战种植</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>zpg_icon_yg</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_3</t>
-  </si>
-  <si>
-    <t>zpg_icon_cc</t>
-  </si>
-  <si>
-    <t>铲子</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_4</t>
-  </si>
-  <si>
-    <t>zpg_icon_sc</t>
-  </si>
-  <si>
-    <t>除虫剂</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_bet_5</t>
-  </si>
-  <si>
-    <t>zpg_icon_fl</t>
-  </si>
-  <si>
-    <t>肥料</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_mfcjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>免费抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_5y</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_50flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_200flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_500flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_1000flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_50flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_200flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_500flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_3d_1000flq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_4</t>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠白银宝箱（免费小额用户，V1-V3用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠黄金宝箱（免费小额用户，V1-V3用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠钻石宝箱（免费小额用户，V1-V3用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠白银宝箱（V4-V7用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠黄金宝箱（V4-V7用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠钻石宝箱（V4-V7用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠白银宝箱（V8-V10用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠黄金宝箱（V8-V10用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>节日特惠钻石宝箱（V8-V10用户）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cjlb_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cjlb_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cjlb_3</t>
-  </si>
-  <si>
-    <t>prop_cjlb_4</t>
-  </si>
-  <si>
-    <t>prop_cjlb_5</t>
-  </si>
-  <si>
-    <t>prop_cjlb_6</t>
-  </si>
-  <si>
-    <t>prop_cjlb_7</t>
-  </si>
-  <si>
-    <t>prop_cjlb_8</t>
-  </si>
-  <si>
-    <t>prop_cjlb_9</t>
-  </si>
-  <si>
-    <t>prop_xrcdj_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_xrcdj_2</t>
-  </si>
-  <si>
-    <t>prop_xrcdj_3</t>
-  </si>
-  <si>
-    <t>青铜抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于新人抽大奖中的青铜抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于新人抽大奖中的白银抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于新人抽大奖中的黄金抽奖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱心</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪漫七夕活动道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>_common_rank_true_love_026_rank</t>
-  </si>
-  <si>
-    <t>bblb_icon_xin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>bblb_icon_xin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>真爱排行榜积分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>真爱排行榜积分道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_pms_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>xycd_icon_ty2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运彩蛋活动道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_xycd_sunshine</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>250福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>25000福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>250000福利券赛门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加250福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加2500福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加25000福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于参加250000福利券赛的门票</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤（V1-V3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_silver_hammer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>银锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤（V1-V3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤（V1-V3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_brass_hammer_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤（V4-V7）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_silver_hammer_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>银锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤（V4-V7）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gold_hammer_2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金锤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤（V4-V7）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_silver_hammer_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gold_hammer_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋金锤（v8-v10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋银锤（v8-v10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐敲金蛋铜锤（v8-v10)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_brass_hammer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gold_hammer_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_brass_hammer_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_dhq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>畅玩礼包抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cwlb_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_031_aster</t>
+    <t>prop_gej_cs</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_feed</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_coin1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_coin2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_4</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2290,410 +2719,337 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>国庆快乐活动掉落</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_icon_xx2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_3</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_1</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_3</t>
-  </si>
-  <si>
-    <t>初级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_1_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_2_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_3_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_1_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_2_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_3_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳节抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳节抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cyj_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cjlb_10</t>
-  </si>
-  <si>
-    <t>xrzxlb_iocn_xrbx_1</t>
-  </si>
-  <si>
-    <t>新手宝箱</t>
-  </si>
-  <si>
-    <t>新人专享新手宝箱</t>
-  </si>
-  <si>
-    <t>prop_cjlb_11</t>
-  </si>
-  <si>
-    <t>act_033_xrzxlb_gjbx</t>
-  </si>
-  <si>
-    <t>高级宝箱</t>
-  </si>
-  <si>
-    <t>新人专享高级宝箱</t>
-  </si>
-  <si>
-    <t>prop_cjlb_12</t>
-  </si>
-  <si>
-    <t>xrzxlb_iocn_hhbx_1</t>
-  </si>
-  <si>
-    <t>豪华宝箱</t>
-  </si>
-  <si>
-    <t>新人专享豪华宝箱</t>
-  </si>
-  <si>
-    <t>prop_11.11_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwzp_icon_cjq</t>
-  </si>
-  <si>
-    <t>cwzp_icon_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一抽奖券</t>
-  </si>
-  <si>
-    <t>双十一抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_4</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_5</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_4</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_5</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_4</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_5</t>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_4_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_5_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_4_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_5_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_4_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_5_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>终极核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>终极核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>终极核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_1000114</t>
-  </si>
-  <si>
-    <t>ty_icon_hytb</t>
-  </si>
-  <si>
-    <t>积分</t>
-  </si>
-  <si>
-    <t>新人七天乐积分</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_web_chip_huafei</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_accelerate</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_wild</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_doubled</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍卡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>以1.5倍的速度进行发炮，持续15秒。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕鱼将获得双倍奖励，同时会提升消耗，持续15秒。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹获得双倍威力，同时会提升消耗，持续15秒。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_jb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_js</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_btn_kb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩节火鸡道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩节稀有</t>
-  </si>
-  <si>
-    <t>感恩节史诗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩节传说</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有宝箱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>史诗宝箱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说宝箱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>hjhhl_iocn_jt</t>
-  </si>
-  <si>
-    <t>火鸡掉落物</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gej_ss</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gej_hj</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gej_xy</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_gej_cs</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>eznhk_icon_3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>eznhk_icon_4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>stgc_icon_bx2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_036_gelb","prop_gej_xy"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_036_gelb","prop_gej_ss"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_036_gelb","prop_gej_cs"</t>
+    <t>水族馆通用货币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>饲料</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于喂养水族馆中的鱼苗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵硬币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级精灵硬币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢入精灵泉水中进行普通祈祷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢入精灵泉水中进行普高级祈祷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼苗碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟鱼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>可放入水族馆中进行喂养，每次喂养即可产出货币</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于合成鱼苗，也可以直接售卖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经成熟的鱼，可以进行售卖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼苗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish2</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish3</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish4</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish5</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish6</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish7</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish8</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish9</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish10</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish11</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish12</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish13</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish14</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish15</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish16</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish17</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish18</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish19</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish20</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish21</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish22</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish23</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish24</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish25</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish26</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish27</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish28</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish29</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish30</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish31</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment2</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment3</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment4</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment5</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment6</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment7</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment8</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment9</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment10</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment11</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment12</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment13</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment14</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment15</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment16</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment17</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment18</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment19</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment20</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment21</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment22</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment23</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment24</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment25</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment26</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment27</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment28</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment29</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment30</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment31</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry2</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry3</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry4</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry5</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry6</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry7</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry8</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry9</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry10</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry11</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry12</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry13</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry14</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry15</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry16</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry17</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry18</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry19</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry20</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry21</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry22</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry23</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry24</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry25</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry26</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry27</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry28</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry29</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry30</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry31</t>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_stars</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2772,7 +3128,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2806,6 +3162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2852,7 +3214,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2932,6 +3294,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3212,11 +3580,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q184"/>
+  <dimension ref="A1:Q281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O184" sqref="O184"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3280,7 +3648,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>350</v>
+        <v>662</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>296</v>
@@ -3368,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>20</v>
@@ -3394,13 +3762,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -3446,13 +3814,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3472,13 +3840,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -4196,7 +4564,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4519,7 +4887,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D43" s="2">
         <v>-1</v>
@@ -4696,7 +5064,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D48" s="2">
         <v>-1</v>
@@ -4730,7 +5098,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D49" s="2">
         <v>-1</v>
@@ -4902,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -4940,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -4978,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -5523,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -5555,7 +5923,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -5593,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -5717,7 +6085,7 @@
         <v>277</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>331</v>
@@ -5805,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -5814,13 +6182,13 @@
         <v>23</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J80" s="15" t="s">
         <v>286</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5852,7 +6220,7 @@
         <v>289</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>297</v>
@@ -5890,7 +6258,7 @@
         <v>292</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>298</v>
@@ -6280,7 +6648,7 @@
         <v>328</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>332</v>
@@ -6367,7 +6735,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D97" s="2">
         <v>-1</v>
@@ -6399,7 +6767,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D98" s="2">
         <v>-1</v>
@@ -6408,7 +6776,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
@@ -6417,10 +6785,10 @@
         <v>36</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N98" s="2">
         <v>9</v>
@@ -6434,7 +6802,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D99" s="2">
         <v>-1</v>
@@ -6443,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
@@ -6452,10 +6820,10 @@
         <v>37</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N99" s="2">
         <v>9</v>
@@ -6469,7 +6837,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D100" s="2">
         <v>-1</v>
@@ -6478,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G100" s="2">
         <v>1</v>
@@ -6487,10 +6855,10 @@
         <v>38</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N100" s="2">
         <v>9</v>
@@ -6504,7 +6872,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D101" s="2">
         <v>-1</v>
@@ -6513,7 +6881,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G101" s="2">
         <v>1</v>
@@ -6522,10 +6890,10 @@
         <v>39</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N101" s="2">
         <v>9</v>
@@ -6539,7 +6907,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D102" s="2">
         <v>-1</v>
@@ -6548,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
@@ -6557,10 +6925,10 @@
         <v>40</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N102" s="2">
         <v>9</v>
@@ -6574,7 +6942,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D103" s="2">
         <v>-1</v>
@@ -6583,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G103" s="2">
         <v>1</v>
@@ -6592,10 +6960,10 @@
         <v>41</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N103" s="2">
         <v>9</v>
@@ -6609,7 +6977,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D104" s="2">
         <v>-1</v>
@@ -6618,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G104" s="2">
         <v>1</v>
@@ -6627,10 +6995,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N104" s="2">
         <v>9</v>
@@ -6644,7 +7012,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D105" s="2">
         <v>-1</v>
@@ -6653,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G105" s="2">
         <v>1</v>
@@ -6662,10 +7030,10 @@
         <v>43</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N105" s="2">
         <v>9</v>
@@ -6679,7 +7047,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D106" s="2">
         <v>-1</v>
@@ -6688,7 +7056,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G106" s="2">
         <v>1</v>
@@ -6697,10 +7065,10 @@
         <v>44</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N106" s="2">
         <v>9</v>
@@ -6714,7 +7082,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D107" s="2">
         <v>-1</v>
@@ -6723,7 +7091,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G107" s="2">
         <v>1</v>
@@ -6732,7 +7100,7 @@
         <v>32</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>173</v>
@@ -6751,7 +7119,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D108" s="2">
         <v>-1</v>
@@ -6760,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G108" s="2">
         <v>1</v>
@@ -6769,7 +7137,7 @@
         <v>33</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J108" s="5" t="s">
         <v>177</v>
@@ -6788,7 +7156,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D109" s="2">
         <v>-1</v>
@@ -6797,7 +7165,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G109" s="2">
         <v>1</v>
@@ -6806,10 +7174,10 @@
         <v>33</v>
       </c>
       <c r="I109" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="J109" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6820,7 +7188,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D110" s="2">
         <v>-1</v>
@@ -6829,7 +7197,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G110" s="2">
         <v>1</v>
@@ -6838,10 +7206,10 @@
         <v>34</v>
       </c>
       <c r="I110" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="J110" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="L110" s="5"/>
     </row>
@@ -6853,28 +7221,28 @@
         <v>110</v>
       </c>
       <c r="C111" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="D111" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D111" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E111" s="2">
-        <v>1</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1</v>
+      </c>
+      <c r="I111" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="G111" s="2">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2">
-        <v>1</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>399</v>
-      </c>
       <c r="J111" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L111" s="5" t="s">
         <v>174</v>
@@ -6891,28 +7259,28 @@
         <v>111</v>
       </c>
       <c r="C112" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="D112" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D112" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E112" s="2">
-        <v>1</v>
-      </c>
-      <c r="F112" s="5" t="s">
+      <c r="G112" s="2">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1</v>
+      </c>
+      <c r="I112" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="G112" s="2">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2">
-        <v>1</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>402</v>
-      </c>
       <c r="J112" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>174</v>
@@ -6929,28 +7297,28 @@
         <v>112</v>
       </c>
       <c r="C113" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="D113" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G113" s="2">
+        <v>1</v>
+      </c>
+      <c r="H113" s="2">
+        <v>1</v>
+      </c>
+      <c r="I113" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="D113" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G113" s="2">
-        <v>1</v>
-      </c>
-      <c r="H113" s="2">
-        <v>1</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>404</v>
-      </c>
       <c r="J113" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L113" s="5" t="s">
         <v>174</v>
@@ -6967,28 +7335,28 @@
         <v>113</v>
       </c>
       <c r="C114" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="D114" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1</v>
+      </c>
+      <c r="I114" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="D114" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E114" s="2">
-        <v>1</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="G114" s="2">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2">
-        <v>1</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>406</v>
-      </c>
       <c r="J114" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L114" s="5" t="s">
         <v>174</v>
@@ -7005,28 +7373,28 @@
         <v>114</v>
       </c>
       <c r="C115" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="D115" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1</v>
+      </c>
+      <c r="I115" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D115" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E115" s="2">
-        <v>1</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G115" s="2">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2">
-        <v>1</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>408</v>
-      </c>
       <c r="J115" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L115" s="5" t="s">
         <v>174</v>
@@ -7043,28 +7411,28 @@
         <v>115</v>
       </c>
       <c r="C116" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D116" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="G116" s="2">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1</v>
+      </c>
+      <c r="I116" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D116" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E116" s="2">
-        <v>1</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="G116" s="2">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2">
-        <v>1</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>410</v>
-      </c>
       <c r="J116" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L116" s="5" t="s">
         <v>174</v>
@@ -7081,16 +7449,16 @@
         <v>116</v>
       </c>
       <c r="C117" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="D117" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>451</v>
-      </c>
-      <c r="D117" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E117" s="2">
-        <v>1</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="G117" s="2">
         <v>0</v>
@@ -7099,10 +7467,10 @@
         <v>33</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
@@ -7115,16 +7483,16 @@
         <v>117</v>
       </c>
       <c r="C118" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="D118" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="D118" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E118" s="2">
-        <v>1</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>435</v>
       </c>
       <c r="G118" s="2">
         <v>0</v>
@@ -7133,10 +7501,10 @@
         <v>36</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7147,16 +7515,16 @@
         <v>118</v>
       </c>
       <c r="C119" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D119" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="D119" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E119" s="2">
-        <v>1</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="G119" s="2">
         <v>0</v>
@@ -7165,10 +7533,10 @@
         <v>37</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7179,16 +7547,16 @@
         <v>119</v>
       </c>
       <c r="C120" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="D120" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="D120" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E120" s="2">
-        <v>1</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="G120" s="2">
         <v>0</v>
@@ -7197,10 +7565,10 @@
         <v>38</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7211,16 +7579,16 @@
         <v>120</v>
       </c>
       <c r="C121" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="D121" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="D121" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E121" s="2">
-        <v>1</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
@@ -7229,10 +7597,10 @@
         <v>39</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7243,16 +7611,16 @@
         <v>121</v>
       </c>
       <c r="C122" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="D122" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="D122" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="G122" s="2">
         <v>0</v>
@@ -7261,10 +7629,10 @@
         <v>40</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7275,7 +7643,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D123" s="2">
         <v>-1</v>
@@ -7284,7 +7652,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G123" s="2">
         <v>1</v>
@@ -7293,10 +7661,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N123" s="2">
         <v>1</v>
@@ -7310,7 +7678,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D124" s="2">
         <v>-1</v>
@@ -7319,7 +7687,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
@@ -7328,10 +7696,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N124" s="2">
         <v>1</v>
@@ -7345,7 +7713,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D125" s="2">
         <v>-1</v>
@@ -7354,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G125" s="2">
         <v>1</v>
@@ -7363,10 +7731,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N125" s="2">
         <v>1</v>
@@ -7380,7 +7748,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D126" s="2">
         <v>-1</v>
@@ -7389,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
@@ -7398,10 +7766,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N126" s="2">
         <v>1</v>
@@ -7415,7 +7783,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D127" s="2">
         <v>-1</v>
@@ -7424,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
@@ -7433,10 +7801,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N127" s="2">
         <v>1</v>
@@ -7450,7 +7818,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D128" s="2">
         <v>-1</v>
@@ -7459,7 +7827,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
@@ -7468,10 +7836,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N128" s="2">
         <v>1</v>
@@ -7485,7 +7853,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D129" s="2">
         <v>-1</v>
@@ -7494,7 +7862,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
@@ -7503,10 +7871,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N129" s="2">
         <v>1</v>
@@ -7520,7 +7888,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D130" s="2">
         <v>-1</v>
@@ -7529,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G130" s="2">
         <v>1</v>
@@ -7538,10 +7906,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N130" s="2">
         <v>1</v>
@@ -7555,7 +7923,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D131" s="2">
         <v>-1</v>
@@ -7564,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G131" s="2">
         <v>0</v>
@@ -7573,10 +7941,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="J131" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -7587,7 +7955,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D132" s="2">
         <v>-1</v>
@@ -7596,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G132" s="2">
         <v>0</v>
@@ -7605,10 +7973,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="J132" s="5" t="s">
         <v>472</v>
-      </c>
-      <c r="J132" s="5" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -7619,7 +7987,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D133" s="2">
         <v>-1</v>
@@ -7628,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G133" s="2">
         <v>0</v>
@@ -7637,10 +8005,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -7651,7 +8019,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D134" s="2">
         <v>-1</v>
@@ -7660,7 +8028,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G134" s="2">
         <v>0</v>
@@ -7669,10 +8037,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -7683,7 +8051,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D135" s="2">
         <v>-1</v>
@@ -7692,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G135" s="2">
         <v>0</v>
@@ -7701,10 +8069,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -7715,7 +8083,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D136" s="2">
         <v>-1</v>
@@ -7724,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G136" s="2">
         <v>0</v>
@@ -7733,10 +8101,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -7747,7 +8115,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D137" s="2">
         <v>-1</v>
@@ -7756,7 +8124,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G137" s="2">
         <v>0</v>
@@ -7765,10 +8133,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -7779,7 +8147,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D138" s="2">
         <v>-1</v>
@@ -7788,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -7797,10 +8165,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -7811,7 +8179,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D139" s="2">
         <v>-1</v>
@@ -7820,7 +8188,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -7829,10 +8197,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -7843,7 +8211,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D140" s="2">
         <v>-1</v>
@@ -7861,10 +8229,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -7875,7 +8243,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D141" s="2">
         <v>-1</v>
@@ -7884,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -7893,10 +8261,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -7907,7 +8275,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D142" s="2">
         <v>-1</v>
@@ -7916,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -7925,10 +8293,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -7939,7 +8307,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D143" s="2">
         <v>-1</v>
@@ -7948,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -7957,10 +8325,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -7971,7 +8339,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D144" s="2">
         <v>-1</v>
@@ -7980,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -7989,10 +8357,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="J144" s="5" t="s">
         <v>505</v>
-      </c>
-      <c r="J144" s="5" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -8003,7 +8371,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D145" s="2">
         <v>-1</v>
@@ -8012,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -8021,10 +8389,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="J145" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="J145" s="5" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="146" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8035,7 +8403,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D146" s="11">
         <v>-1</v>
@@ -8044,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G146" s="11">
         <v>0</v>
@@ -8053,10 +8421,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="J146" s="21" t="s">
         <v>522</v>
-      </c>
-      <c r="J146" s="21" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="147" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8067,7 +8435,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D147" s="11">
         <v>-1</v>
@@ -8076,7 +8444,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G147" s="11">
         <v>0</v>
@@ -8085,10 +8453,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="J147" s="21" t="s">
         <v>525</v>
-      </c>
-      <c r="J147" s="21" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="148" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8099,7 +8467,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D148" s="11">
         <v>-1</v>
@@ -8108,7 +8476,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G148" s="11">
         <v>0</v>
@@ -8117,10 +8485,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="J148" s="21" t="s">
         <v>528</v>
-      </c>
-      <c r="J148" s="21" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="149" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8131,7 +8499,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D149" s="11">
         <v>-1</v>
@@ -8140,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G149" s="11">
         <v>0</v>
@@ -8149,10 +8517,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="J149" s="21" t="s">
         <v>531</v>
-      </c>
-      <c r="J149" s="21" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="150" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8163,7 +8531,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D150" s="11">
         <v>-1</v>
@@ -8172,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G150" s="11">
         <v>0</v>
@@ -8181,10 +8549,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="J150" s="21" t="s">
         <v>534</v>
-      </c>
-      <c r="J150" s="21" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="151" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8195,16 +8563,16 @@
         <v>150</v>
       </c>
       <c r="C151" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="D151" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="11">
+        <v>1</v>
+      </c>
+      <c r="F151" s="12" t="s">
         <v>536</v>
-      </c>
-      <c r="D151" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E151" s="11">
-        <v>1</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>537</v>
       </c>
       <c r="G151" s="11">
         <v>0</v>
@@ -8213,10 +8581,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="J151" s="21" t="s">
         <v>538</v>
-      </c>
-      <c r="J151" s="21" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="152" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8227,7 +8595,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D152" s="11">
         <v>-1</v>
@@ -8236,7 +8604,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G152" s="11">
         <v>0</v>
@@ -8245,10 +8613,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J152" s="21" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="153" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8259,7 +8627,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D153" s="11">
         <v>-1</v>
@@ -8268,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G153" s="11">
         <v>0</v>
@@ -8277,10 +8645,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J153" s="21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="154" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8291,7 +8659,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D154" s="11">
         <v>-1</v>
@@ -8300,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G154" s="11">
         <v>0</v>
@@ -8309,10 +8677,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J154" s="21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="155" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -8323,16 +8691,16 @@
         <v>154</v>
       </c>
       <c r="C155" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="D155" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="11">
+        <v>1</v>
+      </c>
+      <c r="F155" s="12" t="s">
         <v>551</v>
-      </c>
-      <c r="D155" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E155" s="11">
-        <v>1</v>
-      </c>
-      <c r="F155" s="12" t="s">
-        <v>552</v>
       </c>
       <c r="G155" s="11">
         <v>0</v>
@@ -8341,10 +8709,10 @@
         <v>33</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="156" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8355,7 +8723,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D156" s="11">
         <v>-1</v>
@@ -8364,7 +8732,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G156" s="11">
         <v>0</v>
@@ -8373,10 +8741,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="J156" s="21" t="s">
         <v>554</v>
-      </c>
-      <c r="J156" s="21" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="157" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8387,7 +8755,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D157" s="11">
         <v>-1</v>
@@ -8396,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G157" s="11">
         <v>1</v>
@@ -8405,13 +8773,13 @@
         <v>34</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="158" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8422,7 +8790,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D158" s="11">
         <v>-1</v>
@@ -8431,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G158" s="11">
         <v>1</v>
@@ -8440,13 +8808,13 @@
         <v>34</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="159" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8457,7 +8825,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D159" s="11">
         <v>-1</v>
@@ -8466,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G159" s="11">
         <v>1</v>
@@ -8475,13 +8843,13 @@
         <v>34</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="160" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8492,7 +8860,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>607</v>
+        <v>668</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -8501,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G160" s="11">
         <v>1</v>
@@ -8510,13 +8878,13 @@
         <v>34</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="161" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8527,7 +8895,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D161" s="11">
         <v>-1</v>
@@ -8536,7 +8904,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G161" s="11">
         <v>1</v>
@@ -8545,13 +8913,13 @@
         <v>34</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="162" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8562,7 +8930,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D162" s="11">
         <v>-1</v>
@@ -8571,7 +8939,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G162" s="11">
         <v>1</v>
@@ -8580,10 +8948,10 @@
         <v>34</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="163" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8594,7 +8962,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D163" s="11">
         <v>-1</v>
@@ -8603,7 +8971,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G163" s="11">
         <v>1</v>
@@ -8612,10 +8980,10 @@
         <v>34</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="164" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8626,7 +8994,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D164" s="11">
         <v>-1</v>
@@ -8635,7 +9003,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G164" s="11">
         <v>1</v>
@@ -8644,10 +9012,10 @@
         <v>34</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="165" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8658,7 +9026,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D165" s="11">
         <v>-1</v>
@@ -8667,7 +9035,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G165" s="11">
         <v>1</v>
@@ -8676,10 +9044,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="166" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8690,7 +9058,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D166" s="11">
         <v>-1</v>
@@ -8699,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G166" s="11">
         <v>1</v>
@@ -8708,10 +9076,10 @@
         <v>34</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="167" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8722,7 +9090,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D167" s="11">
         <v>-1</v>
@@ -8731,7 +9099,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G167" s="11">
         <v>1</v>
@@ -8740,10 +9108,10 @@
         <v>34</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="168" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8754,7 +9122,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D168" s="11">
         <v>-1</v>
@@ -8763,7 +9131,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G168" s="11">
         <v>1</v>
@@ -8772,10 +9140,10 @@
         <v>34</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="169" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8786,7 +9154,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D169" s="11">
         <v>-1</v>
@@ -8795,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G169" s="11">
         <v>1</v>
@@ -8804,10 +9172,10 @@
         <v>34</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="170" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8818,16 +9186,16 @@
         <v>169</v>
       </c>
       <c r="C170" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="D170" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E170" s="11">
+        <v>1</v>
+      </c>
+      <c r="F170" s="12" t="s">
         <v>611</v>
-      </c>
-      <c r="D170" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E170" s="11">
-        <v>1</v>
-      </c>
-      <c r="F170" s="12" t="s">
-        <v>613</v>
       </c>
       <c r="G170" s="11">
         <v>1</v>
@@ -8836,10 +9204,10 @@
         <v>34</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="171" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8850,16 +9218,16 @@
         <v>170</v>
       </c>
       <c r="C171" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="D171" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E171" s="11">
+        <v>1</v>
+      </c>
+      <c r="F171" s="12" t="s">
         <v>612</v>
-      </c>
-      <c r="D171" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E171" s="11">
-        <v>1</v>
-      </c>
-      <c r="F171" s="12" t="s">
-        <v>614</v>
       </c>
       <c r="G171" s="11">
         <v>1</v>
@@ -8868,10 +9236,10 @@
         <v>34</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="172" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8882,7 +9250,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D172" s="11">
         <v>-1</v>
@@ -8891,7 +9259,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G172" s="11">
         <v>0</v>
@@ -8900,10 +9268,10 @@
         <v>33</v>
       </c>
       <c r="I172" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="J172" s="12" t="s">
         <v>583</v>
-      </c>
-      <c r="J172" s="12" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="173" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8914,16 +9282,16 @@
         <v>172</v>
       </c>
       <c r="C173" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="D173" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E173" s="13">
+        <v>1</v>
+      </c>
+      <c r="F173" s="13" t="s">
         <v>590</v>
-      </c>
-      <c r="D173" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E173" s="13">
-        <v>1</v>
-      </c>
-      <c r="F173" s="13" t="s">
-        <v>591</v>
       </c>
       <c r="G173" s="13">
         <v>1</v>
@@ -8932,10 +9300,10 @@
         <v>33</v>
       </c>
       <c r="I173" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="J173" s="13" t="s">
         <v>592</v>
-      </c>
-      <c r="J173" s="13" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="174" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8946,16 +9314,16 @@
         <v>173</v>
       </c>
       <c r="C174" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="D174" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E174" s="13">
+        <v>1</v>
+      </c>
+      <c r="F174" s="13" t="s">
         <v>594</v>
-      </c>
-      <c r="D174" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E174" s="13">
-        <v>1</v>
-      </c>
-      <c r="F174" s="13" t="s">
-        <v>595</v>
       </c>
       <c r="G174" s="13">
         <v>1</v>
@@ -8964,10 +9332,10 @@
         <v>33</v>
       </c>
       <c r="I174" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="J174" s="13" t="s">
         <v>596</v>
-      </c>
-      <c r="J174" s="13" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="175" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8978,16 +9346,16 @@
         <v>174</v>
       </c>
       <c r="C175" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="D175" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E175" s="13">
+        <v>1</v>
+      </c>
+      <c r="F175" s="13" t="s">
         <v>598</v>
-      </c>
-      <c r="D175" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E175" s="13">
-        <v>1</v>
-      </c>
-      <c r="F175" s="13" t="s">
-        <v>599</v>
       </c>
       <c r="G175" s="13">
         <v>1</v>
@@ -8996,10 +9364,10 @@
         <v>33</v>
       </c>
       <c r="I175" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="J175" s="13" t="s">
         <v>600</v>
-      </c>
-      <c r="J175" s="13" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="176" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -9010,16 +9378,16 @@
         <v>175</v>
       </c>
       <c r="C176" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="D176" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E176" s="23">
+        <v>1</v>
+      </c>
+      <c r="F176" s="23" t="s">
         <v>602</v>
-      </c>
-      <c r="D176" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E176" s="23">
-        <v>1</v>
-      </c>
-      <c r="F176" s="23" t="s">
-        <v>603</v>
       </c>
       <c r="G176" s="23">
         <v>0</v>
@@ -9028,10 +9396,10 @@
         <v>33</v>
       </c>
       <c r="I176" s="23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J176" s="23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="177" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -9042,7 +9410,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D177" s="25">
         <v>-1</v>
@@ -9051,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="F177" s="25" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G177" s="25">
         <v>0</v>
@@ -9060,10 +9428,10 @@
         <v>33</v>
       </c>
       <c r="I177" s="25" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="J177" s="25" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="178" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -9074,7 +9442,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D178" s="2">
         <v>-1</v>
@@ -9083,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G178" s="2">
         <v>1</v>
@@ -9092,10 +9460,10 @@
         <v>32</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
@@ -9111,7 +9479,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D179" s="2">
         <v>-1</v>
@@ -9120,7 +9488,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G179" s="2">
         <v>1</v>
@@ -9129,10 +9497,10 @@
         <v>33</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
@@ -9148,7 +9516,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D180" s="2">
         <v>-1</v>
@@ -9157,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G180" s="2">
         <v>1</v>
@@ -9166,10 +9534,10 @@
         <v>33</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
@@ -9185,7 +9553,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="26" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D181" s="25">
         <v>-1</v>
@@ -9194,7 +9562,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="25" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G181" s="25">
         <v>0</v>
@@ -9203,10 +9571,10 @@
         <v>33</v>
       </c>
       <c r="I181" s="25" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="J181" s="25" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="182" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -9217,7 +9585,7 @@
         <v>181</v>
       </c>
       <c r="C182" s="24" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D182" s="23">
         <v>-1</v>
@@ -9226,7 +9594,7 @@
         <v>1</v>
       </c>
       <c r="F182" s="23" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G182" s="23">
         <v>1</v>
@@ -9235,13 +9603,13 @@
         <v>33</v>
       </c>
       <c r="I182" s="24" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J182" s="23" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="L182" s="23" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="O182" s="23">
         <v>57</v>
@@ -9255,7 +9623,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D183" s="23">
         <v>-1</v>
@@ -9264,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="F183" s="23" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G183" s="23">
         <v>1</v>
@@ -9273,13 +9641,13 @@
         <v>33</v>
       </c>
       <c r="I183" s="24" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="J183" s="24" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="L183" s="23" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="O183" s="23">
         <v>58</v>
@@ -9293,16 +9661,16 @@
         <v>183</v>
       </c>
       <c r="C184" s="24" t="s">
+        <v>663</v>
+      </c>
+      <c r="D184" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E184" s="23">
+        <v>1</v>
+      </c>
+      <c r="F184" s="23" t="s">
         <v>658</v>
-      </c>
-      <c r="D184" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E184" s="23">
-        <v>1</v>
-      </c>
-      <c r="F184" s="23" t="s">
-        <v>661</v>
       </c>
       <c r="G184" s="23">
         <v>1</v>
@@ -9311,16 +9679,3411 @@
         <v>33</v>
       </c>
       <c r="I184" s="24" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J184" s="24" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="L184" s="23" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="O184" s="23">
         <v>59</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="27">
+        <v>184</v>
+      </c>
+      <c r="B185" s="27">
+        <v>184</v>
+      </c>
+      <c r="C185" s="28" t="s">
+        <v>775</v>
+      </c>
+      <c r="D185" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E185" s="27">
+        <v>1</v>
+      </c>
+      <c r="F185" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G185" s="27">
+        <v>1</v>
+      </c>
+      <c r="H185" s="27">
+        <v>1</v>
+      </c>
+      <c r="I185" s="28" t="s">
+        <v>669</v>
+      </c>
+      <c r="J185" s="28" t="s">
+        <v>670</v>
+      </c>
+      <c r="N185" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="27">
+        <v>185</v>
+      </c>
+      <c r="B186" s="27">
+        <v>185</v>
+      </c>
+      <c r="C186" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="D186" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E186" s="27">
+        <v>1</v>
+      </c>
+      <c r="F186" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G186" s="27">
+        <v>1</v>
+      </c>
+      <c r="H186" s="27">
+        <v>2</v>
+      </c>
+      <c r="I186" s="28" t="s">
+        <v>671</v>
+      </c>
+      <c r="J186" s="28" t="s">
+        <v>672</v>
+      </c>
+      <c r="N186" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="27">
+        <v>186</v>
+      </c>
+      <c r="B187" s="27">
+        <v>186</v>
+      </c>
+      <c r="C187" s="27" t="s">
+        <v>665</v>
+      </c>
+      <c r="D187" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E187" s="27">
+        <v>1</v>
+      </c>
+      <c r="F187" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G187" s="27">
+        <v>1</v>
+      </c>
+      <c r="H187" s="27">
+        <v>3</v>
+      </c>
+      <c r="I187" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="J187" s="28" t="s">
+        <v>675</v>
+      </c>
+      <c r="N187" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="27">
+        <v>187</v>
+      </c>
+      <c r="B188" s="27">
+        <v>187</v>
+      </c>
+      <c r="C188" s="27" t="s">
+        <v>666</v>
+      </c>
+      <c r="D188" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E188" s="27">
+        <v>1</v>
+      </c>
+      <c r="F188" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G188" s="27">
+        <v>1</v>
+      </c>
+      <c r="H188" s="27">
+        <v>4</v>
+      </c>
+      <c r="I188" s="28" t="s">
+        <v>674</v>
+      </c>
+      <c r="J188" s="28" t="s">
+        <v>676</v>
+      </c>
+      <c r="N188" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="27">
+        <v>188</v>
+      </c>
+      <c r="B189" s="27">
+        <v>188</v>
+      </c>
+      <c r="C189" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="D189" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E189" s="27">
+        <v>1</v>
+      </c>
+      <c r="F189" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G189" s="27">
+        <v>1</v>
+      </c>
+      <c r="H189" s="27">
+        <v>5</v>
+      </c>
+      <c r="I189" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J189" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N189" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="27">
+        <v>189</v>
+      </c>
+      <c r="B190" s="27">
+        <v>189</v>
+      </c>
+      <c r="C190" s="28" t="s">
+        <v>744</v>
+      </c>
+      <c r="D190" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E190" s="27">
+        <v>1</v>
+      </c>
+      <c r="F190" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G190" s="27">
+        <v>1</v>
+      </c>
+      <c r="H190" s="27">
+        <v>6</v>
+      </c>
+      <c r="I190" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J190" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N190" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="27">
+        <v>190</v>
+      </c>
+      <c r="B191" s="27">
+        <v>190</v>
+      </c>
+      <c r="C191" s="28" t="s">
+        <v>745</v>
+      </c>
+      <c r="D191" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E191" s="27">
+        <v>1</v>
+      </c>
+      <c r="F191" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G191" s="27">
+        <v>1</v>
+      </c>
+      <c r="H191" s="27">
+        <v>7</v>
+      </c>
+      <c r="I191" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J191" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N191" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A192" s="27">
+        <v>191</v>
+      </c>
+      <c r="B192" s="27">
+        <v>191</v>
+      </c>
+      <c r="C192" s="28" t="s">
+        <v>746</v>
+      </c>
+      <c r="D192" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E192" s="27">
+        <v>1</v>
+      </c>
+      <c r="F192" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G192" s="27">
+        <v>1</v>
+      </c>
+      <c r="H192" s="27">
+        <v>8</v>
+      </c>
+      <c r="I192" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J192" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N192" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A193" s="27">
+        <v>192</v>
+      </c>
+      <c r="B193" s="27">
+        <v>192</v>
+      </c>
+      <c r="C193" s="28" t="s">
+        <v>747</v>
+      </c>
+      <c r="D193" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E193" s="27">
+        <v>1</v>
+      </c>
+      <c r="F193" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G193" s="27">
+        <v>1</v>
+      </c>
+      <c r="H193" s="27">
+        <v>9</v>
+      </c>
+      <c r="I193" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J193" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N193" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A194" s="27">
+        <v>193</v>
+      </c>
+      <c r="B194" s="27">
+        <v>193</v>
+      </c>
+      <c r="C194" s="28" t="s">
+        <v>748</v>
+      </c>
+      <c r="D194" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E194" s="27">
+        <v>1</v>
+      </c>
+      <c r="F194" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G194" s="27">
+        <v>1</v>
+      </c>
+      <c r="H194" s="27">
+        <v>10</v>
+      </c>
+      <c r="I194" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J194" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N194" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A195" s="27">
+        <v>194</v>
+      </c>
+      <c r="B195" s="27">
+        <v>194</v>
+      </c>
+      <c r="C195" s="28" t="s">
+        <v>749</v>
+      </c>
+      <c r="D195" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E195" s="27">
+        <v>1</v>
+      </c>
+      <c r="F195" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G195" s="27">
+        <v>1</v>
+      </c>
+      <c r="H195" s="27">
+        <v>11</v>
+      </c>
+      <c r="I195" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J195" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N195" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A196" s="27">
+        <v>195</v>
+      </c>
+      <c r="B196" s="27">
+        <v>195</v>
+      </c>
+      <c r="C196" s="28" t="s">
+        <v>750</v>
+      </c>
+      <c r="D196" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E196" s="27">
+        <v>1</v>
+      </c>
+      <c r="F196" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G196" s="27">
+        <v>1</v>
+      </c>
+      <c r="H196" s="27">
+        <v>12</v>
+      </c>
+      <c r="I196" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J196" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N196" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A197" s="27">
+        <v>196</v>
+      </c>
+      <c r="B197" s="27">
+        <v>196</v>
+      </c>
+      <c r="C197" s="28" t="s">
+        <v>751</v>
+      </c>
+      <c r="D197" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E197" s="27">
+        <v>1</v>
+      </c>
+      <c r="F197" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G197" s="27">
+        <v>1</v>
+      </c>
+      <c r="H197" s="27">
+        <v>13</v>
+      </c>
+      <c r="I197" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J197" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N197" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A198" s="27">
+        <v>197</v>
+      </c>
+      <c r="B198" s="27">
+        <v>197</v>
+      </c>
+      <c r="C198" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="D198" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E198" s="27">
+        <v>1</v>
+      </c>
+      <c r="F198" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G198" s="27">
+        <v>1</v>
+      </c>
+      <c r="H198" s="27">
+        <v>14</v>
+      </c>
+      <c r="I198" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J198" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N198" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A199" s="27">
+        <v>198</v>
+      </c>
+      <c r="B199" s="27">
+        <v>198</v>
+      </c>
+      <c r="C199" s="28" t="s">
+        <v>753</v>
+      </c>
+      <c r="D199" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E199" s="27">
+        <v>1</v>
+      </c>
+      <c r="F199" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G199" s="27">
+        <v>1</v>
+      </c>
+      <c r="H199" s="27">
+        <v>15</v>
+      </c>
+      <c r="I199" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J199" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N199" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A200" s="27">
+        <v>199</v>
+      </c>
+      <c r="B200" s="27">
+        <v>199</v>
+      </c>
+      <c r="C200" s="28" t="s">
+        <v>754</v>
+      </c>
+      <c r="D200" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E200" s="27">
+        <v>1</v>
+      </c>
+      <c r="F200" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G200" s="27">
+        <v>1</v>
+      </c>
+      <c r="H200" s="27">
+        <v>16</v>
+      </c>
+      <c r="I200" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J200" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N200" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A201" s="27">
+        <v>200</v>
+      </c>
+      <c r="B201" s="27">
+        <v>200</v>
+      </c>
+      <c r="C201" s="28" t="s">
+        <v>755</v>
+      </c>
+      <c r="D201" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E201" s="27">
+        <v>1</v>
+      </c>
+      <c r="F201" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G201" s="27">
+        <v>1</v>
+      </c>
+      <c r="H201" s="27">
+        <v>17</v>
+      </c>
+      <c r="I201" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J201" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N201" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A202" s="27">
+        <v>201</v>
+      </c>
+      <c r="B202" s="27">
+        <v>201</v>
+      </c>
+      <c r="C202" s="28" t="s">
+        <v>756</v>
+      </c>
+      <c r="D202" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E202" s="27">
+        <v>1</v>
+      </c>
+      <c r="F202" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G202" s="27">
+        <v>1</v>
+      </c>
+      <c r="H202" s="27">
+        <v>18</v>
+      </c>
+      <c r="I202" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J202" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N202" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A203" s="27">
+        <v>202</v>
+      </c>
+      <c r="B203" s="27">
+        <v>202</v>
+      </c>
+      <c r="C203" s="28" t="s">
+        <v>757</v>
+      </c>
+      <c r="D203" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E203" s="27">
+        <v>1</v>
+      </c>
+      <c r="F203" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G203" s="27">
+        <v>1</v>
+      </c>
+      <c r="H203" s="27">
+        <v>19</v>
+      </c>
+      <c r="I203" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J203" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N203" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A204" s="27">
+        <v>203</v>
+      </c>
+      <c r="B204" s="27">
+        <v>203</v>
+      </c>
+      <c r="C204" s="28" t="s">
+        <v>758</v>
+      </c>
+      <c r="D204" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E204" s="27">
+        <v>1</v>
+      </c>
+      <c r="F204" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G204" s="27">
+        <v>1</v>
+      </c>
+      <c r="H204" s="27">
+        <v>20</v>
+      </c>
+      <c r="I204" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J204" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N204" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A205" s="27">
+        <v>204</v>
+      </c>
+      <c r="B205" s="27">
+        <v>204</v>
+      </c>
+      <c r="C205" s="28" t="s">
+        <v>759</v>
+      </c>
+      <c r="D205" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E205" s="27">
+        <v>1</v>
+      </c>
+      <c r="F205" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G205" s="27">
+        <v>1</v>
+      </c>
+      <c r="H205" s="27">
+        <v>21</v>
+      </c>
+      <c r="I205" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J205" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N205" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A206" s="27">
+        <v>205</v>
+      </c>
+      <c r="B206" s="27">
+        <v>205</v>
+      </c>
+      <c r="C206" s="28" t="s">
+        <v>760</v>
+      </c>
+      <c r="D206" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E206" s="27">
+        <v>1</v>
+      </c>
+      <c r="F206" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G206" s="27">
+        <v>1</v>
+      </c>
+      <c r="H206" s="27">
+        <v>22</v>
+      </c>
+      <c r="I206" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J206" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N206" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A207" s="27">
+        <v>206</v>
+      </c>
+      <c r="B207" s="27">
+        <v>206</v>
+      </c>
+      <c r="C207" s="28" t="s">
+        <v>761</v>
+      </c>
+      <c r="D207" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E207" s="27">
+        <v>1</v>
+      </c>
+      <c r="F207" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G207" s="27">
+        <v>1</v>
+      </c>
+      <c r="H207" s="27">
+        <v>23</v>
+      </c>
+      <c r="I207" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J207" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N207" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A208" s="27">
+        <v>207</v>
+      </c>
+      <c r="B208" s="27">
+        <v>207</v>
+      </c>
+      <c r="C208" s="28" t="s">
+        <v>762</v>
+      </c>
+      <c r="D208" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E208" s="27">
+        <v>1</v>
+      </c>
+      <c r="F208" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G208" s="27">
+        <v>1</v>
+      </c>
+      <c r="H208" s="27">
+        <v>24</v>
+      </c>
+      <c r="I208" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J208" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N208" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A209" s="27">
+        <v>208</v>
+      </c>
+      <c r="B209" s="27">
+        <v>208</v>
+      </c>
+      <c r="C209" s="28" t="s">
+        <v>763</v>
+      </c>
+      <c r="D209" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E209" s="27">
+        <v>1</v>
+      </c>
+      <c r="F209" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G209" s="27">
+        <v>1</v>
+      </c>
+      <c r="H209" s="27">
+        <v>25</v>
+      </c>
+      <c r="I209" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J209" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N209" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A210" s="27">
+        <v>209</v>
+      </c>
+      <c r="B210" s="27">
+        <v>209</v>
+      </c>
+      <c r="C210" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="D210" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E210" s="27">
+        <v>1</v>
+      </c>
+      <c r="F210" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G210" s="27">
+        <v>1</v>
+      </c>
+      <c r="H210" s="27">
+        <v>26</v>
+      </c>
+      <c r="I210" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J210" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N210" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A211" s="27">
+        <v>210</v>
+      </c>
+      <c r="B211" s="27">
+        <v>210</v>
+      </c>
+      <c r="C211" s="28" t="s">
+        <v>765</v>
+      </c>
+      <c r="D211" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E211" s="27">
+        <v>1</v>
+      </c>
+      <c r="F211" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G211" s="27">
+        <v>1</v>
+      </c>
+      <c r="H211" s="27">
+        <v>27</v>
+      </c>
+      <c r="I211" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J211" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N211" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A212" s="27">
+        <v>211</v>
+      </c>
+      <c r="B212" s="27">
+        <v>211</v>
+      </c>
+      <c r="C212" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="D212" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E212" s="27">
+        <v>1</v>
+      </c>
+      <c r="F212" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G212" s="27">
+        <v>1</v>
+      </c>
+      <c r="H212" s="27">
+        <v>28</v>
+      </c>
+      <c r="I212" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J212" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N212" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A213" s="27">
+        <v>212</v>
+      </c>
+      <c r="B213" s="27">
+        <v>212</v>
+      </c>
+      <c r="C213" s="28" t="s">
+        <v>767</v>
+      </c>
+      <c r="D213" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E213" s="27">
+        <v>1</v>
+      </c>
+      <c r="F213" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G213" s="27">
+        <v>1</v>
+      </c>
+      <c r="H213" s="27">
+        <v>29</v>
+      </c>
+      <c r="I213" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J213" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N213" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A214" s="27">
+        <v>213</v>
+      </c>
+      <c r="B214" s="27">
+        <v>213</v>
+      </c>
+      <c r="C214" s="28" t="s">
+        <v>768</v>
+      </c>
+      <c r="D214" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E214" s="27">
+        <v>1</v>
+      </c>
+      <c r="F214" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G214" s="27">
+        <v>1</v>
+      </c>
+      <c r="H214" s="27">
+        <v>30</v>
+      </c>
+      <c r="I214" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J214" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N214" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A215" s="27">
+        <v>214</v>
+      </c>
+      <c r="B215" s="27">
+        <v>214</v>
+      </c>
+      <c r="C215" s="28" t="s">
+        <v>769</v>
+      </c>
+      <c r="D215" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E215" s="27">
+        <v>1</v>
+      </c>
+      <c r="F215" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G215" s="27">
+        <v>1</v>
+      </c>
+      <c r="H215" s="27">
+        <v>31</v>
+      </c>
+      <c r="I215" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J215" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N215" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A216" s="27">
+        <v>215</v>
+      </c>
+      <c r="B216" s="27">
+        <v>215</v>
+      </c>
+      <c r="C216" s="28" t="s">
+        <v>770</v>
+      </c>
+      <c r="D216" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E216" s="27">
+        <v>1</v>
+      </c>
+      <c r="F216" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G216" s="27">
+        <v>1</v>
+      </c>
+      <c r="H216" s="27">
+        <v>32</v>
+      </c>
+      <c r="I216" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J216" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N216" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A217" s="27">
+        <v>216</v>
+      </c>
+      <c r="B217" s="27">
+        <v>216</v>
+      </c>
+      <c r="C217" s="28" t="s">
+        <v>771</v>
+      </c>
+      <c r="D217" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E217" s="27">
+        <v>1</v>
+      </c>
+      <c r="F217" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G217" s="27">
+        <v>1</v>
+      </c>
+      <c r="H217" s="27">
+        <v>33</v>
+      </c>
+      <c r="I217" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J217" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N217" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A218" s="27">
+        <v>217</v>
+      </c>
+      <c r="B218" s="27">
+        <v>217</v>
+      </c>
+      <c r="C218" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="D218" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E218" s="27">
+        <v>1</v>
+      </c>
+      <c r="F218" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G218" s="27">
+        <v>1</v>
+      </c>
+      <c r="H218" s="27">
+        <v>34</v>
+      </c>
+      <c r="I218" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J218" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N218" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A219" s="27">
+        <v>218</v>
+      </c>
+      <c r="B219" s="27">
+        <v>218</v>
+      </c>
+      <c r="C219" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="D219" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E219" s="27">
+        <v>1</v>
+      </c>
+      <c r="F219" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G219" s="27">
+        <v>1</v>
+      </c>
+      <c r="H219" s="27">
+        <v>35</v>
+      </c>
+      <c r="I219" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="J219" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="N219" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A220" s="27">
+        <v>221</v>
+      </c>
+      <c r="B220" s="27">
+        <v>221</v>
+      </c>
+      <c r="C220" s="28" t="s">
+        <v>774</v>
+      </c>
+      <c r="D220" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E220" s="27">
+        <v>1</v>
+      </c>
+      <c r="F220" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G220" s="27">
+        <v>1</v>
+      </c>
+      <c r="H220" s="27">
+        <v>38</v>
+      </c>
+      <c r="I220" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J220" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N220" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A221" s="27">
+        <v>222</v>
+      </c>
+      <c r="B221" s="27">
+        <v>222</v>
+      </c>
+      <c r="C221" s="27" t="s">
+        <v>714</v>
+      </c>
+      <c r="D221" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E221" s="27">
+        <v>1</v>
+      </c>
+      <c r="F221" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G221" s="27">
+        <v>1</v>
+      </c>
+      <c r="H221" s="27">
+        <v>39</v>
+      </c>
+      <c r="I221" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J221" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N221" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A222" s="27">
+        <v>223</v>
+      </c>
+      <c r="B222" s="27">
+        <v>223</v>
+      </c>
+      <c r="C222" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="D222" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E222" s="27">
+        <v>1</v>
+      </c>
+      <c r="F222" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G222" s="27">
+        <v>1</v>
+      </c>
+      <c r="H222" s="27">
+        <v>40</v>
+      </c>
+      <c r="I222" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J222" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N222" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A223" s="27">
+        <v>224</v>
+      </c>
+      <c r="B223" s="27">
+        <v>224</v>
+      </c>
+      <c r="C223" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="D223" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E223" s="27">
+        <v>1</v>
+      </c>
+      <c r="F223" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G223" s="27">
+        <v>1</v>
+      </c>
+      <c r="H223" s="27">
+        <v>41</v>
+      </c>
+      <c r="I223" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J223" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N223" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A224" s="27">
+        <v>225</v>
+      </c>
+      <c r="B224" s="27">
+        <v>225</v>
+      </c>
+      <c r="C224" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="D224" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E224" s="27">
+        <v>1</v>
+      </c>
+      <c r="F224" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G224" s="27">
+        <v>1</v>
+      </c>
+      <c r="H224" s="27">
+        <v>42</v>
+      </c>
+      <c r="I224" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J224" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N224" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A225" s="27">
+        <v>226</v>
+      </c>
+      <c r="B225" s="27">
+        <v>226</v>
+      </c>
+      <c r="C225" s="27" t="s">
+        <v>718</v>
+      </c>
+      <c r="D225" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E225" s="27">
+        <v>1</v>
+      </c>
+      <c r="F225" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G225" s="27">
+        <v>1</v>
+      </c>
+      <c r="H225" s="27">
+        <v>43</v>
+      </c>
+      <c r="I225" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J225" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N225" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A226" s="27">
+        <v>227</v>
+      </c>
+      <c r="B226" s="27">
+        <v>227</v>
+      </c>
+      <c r="C226" s="27" t="s">
+        <v>719</v>
+      </c>
+      <c r="D226" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E226" s="27">
+        <v>1</v>
+      </c>
+      <c r="F226" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G226" s="27">
+        <v>1</v>
+      </c>
+      <c r="H226" s="27">
+        <v>44</v>
+      </c>
+      <c r="I226" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J226" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N226" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A227" s="27">
+        <v>228</v>
+      </c>
+      <c r="B227" s="27">
+        <v>228</v>
+      </c>
+      <c r="C227" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="D227" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E227" s="27">
+        <v>1</v>
+      </c>
+      <c r="F227" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G227" s="27">
+        <v>1</v>
+      </c>
+      <c r="H227" s="27">
+        <v>45</v>
+      </c>
+      <c r="I227" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J227" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N227" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A228" s="27">
+        <v>229</v>
+      </c>
+      <c r="B228" s="27">
+        <v>229</v>
+      </c>
+      <c r="C228" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="D228" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E228" s="27">
+        <v>1</v>
+      </c>
+      <c r="F228" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G228" s="27">
+        <v>1</v>
+      </c>
+      <c r="H228" s="27">
+        <v>46</v>
+      </c>
+      <c r="I228" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J228" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N228" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A229" s="27">
+        <v>230</v>
+      </c>
+      <c r="B229" s="27">
+        <v>230</v>
+      </c>
+      <c r="C229" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="D229" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E229" s="27">
+        <v>1</v>
+      </c>
+      <c r="F229" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G229" s="27">
+        <v>1</v>
+      </c>
+      <c r="H229" s="27">
+        <v>47</v>
+      </c>
+      <c r="I229" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J229" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N229" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A230" s="27">
+        <v>231</v>
+      </c>
+      <c r="B230" s="27">
+        <v>231</v>
+      </c>
+      <c r="C230" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="D230" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E230" s="27">
+        <v>1</v>
+      </c>
+      <c r="F230" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G230" s="27">
+        <v>1</v>
+      </c>
+      <c r="H230" s="27">
+        <v>48</v>
+      </c>
+      <c r="I230" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J230" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N230" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A231" s="27">
+        <v>232</v>
+      </c>
+      <c r="B231" s="27">
+        <v>232</v>
+      </c>
+      <c r="C231" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="D231" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E231" s="27">
+        <v>1</v>
+      </c>
+      <c r="F231" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G231" s="27">
+        <v>1</v>
+      </c>
+      <c r="H231" s="27">
+        <v>49</v>
+      </c>
+      <c r="I231" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J231" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N231" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A232" s="27">
+        <v>233</v>
+      </c>
+      <c r="B232" s="27">
+        <v>233</v>
+      </c>
+      <c r="C232" s="27" t="s">
+        <v>725</v>
+      </c>
+      <c r="D232" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E232" s="27">
+        <v>1</v>
+      </c>
+      <c r="F232" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G232" s="27">
+        <v>1</v>
+      </c>
+      <c r="H232" s="27">
+        <v>50</v>
+      </c>
+      <c r="I232" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J232" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N232" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A233" s="27">
+        <v>234</v>
+      </c>
+      <c r="B233" s="27">
+        <v>234</v>
+      </c>
+      <c r="C233" s="27" t="s">
+        <v>726</v>
+      </c>
+      <c r="D233" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E233" s="27">
+        <v>1</v>
+      </c>
+      <c r="F233" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G233" s="27">
+        <v>1</v>
+      </c>
+      <c r="H233" s="27">
+        <v>51</v>
+      </c>
+      <c r="I233" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J233" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N233" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A234" s="27">
+        <v>235</v>
+      </c>
+      <c r="B234" s="27">
+        <v>235</v>
+      </c>
+      <c r="C234" s="27" t="s">
+        <v>727</v>
+      </c>
+      <c r="D234" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E234" s="27">
+        <v>1</v>
+      </c>
+      <c r="F234" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G234" s="27">
+        <v>1</v>
+      </c>
+      <c r="H234" s="27">
+        <v>52</v>
+      </c>
+      <c r="I234" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J234" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N234" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A235" s="27">
+        <v>236</v>
+      </c>
+      <c r="B235" s="27">
+        <v>236</v>
+      </c>
+      <c r="C235" s="27" t="s">
+        <v>728</v>
+      </c>
+      <c r="D235" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E235" s="27">
+        <v>1</v>
+      </c>
+      <c r="F235" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G235" s="27">
+        <v>1</v>
+      </c>
+      <c r="H235" s="27">
+        <v>53</v>
+      </c>
+      <c r="I235" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J235" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N235" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A236" s="27">
+        <v>237</v>
+      </c>
+      <c r="B236" s="27">
+        <v>237</v>
+      </c>
+      <c r="C236" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="D236" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E236" s="27">
+        <v>1</v>
+      </c>
+      <c r="F236" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G236" s="27">
+        <v>1</v>
+      </c>
+      <c r="H236" s="27">
+        <v>54</v>
+      </c>
+      <c r="I236" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J236" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N236" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A237" s="27">
+        <v>238</v>
+      </c>
+      <c r="B237" s="27">
+        <v>238</v>
+      </c>
+      <c r="C237" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="D237" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E237" s="27">
+        <v>1</v>
+      </c>
+      <c r="F237" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G237" s="27">
+        <v>1</v>
+      </c>
+      <c r="H237" s="27">
+        <v>55</v>
+      </c>
+      <c r="I237" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J237" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N237" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A238" s="27">
+        <v>239</v>
+      </c>
+      <c r="B238" s="27">
+        <v>239</v>
+      </c>
+      <c r="C238" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="D238" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E238" s="27">
+        <v>1</v>
+      </c>
+      <c r="F238" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G238" s="27">
+        <v>1</v>
+      </c>
+      <c r="H238" s="27">
+        <v>56</v>
+      </c>
+      <c r="I238" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J238" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N238" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A239" s="27">
+        <v>240</v>
+      </c>
+      <c r="B239" s="27">
+        <v>240</v>
+      </c>
+      <c r="C239" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="D239" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E239" s="27">
+        <v>1</v>
+      </c>
+      <c r="F239" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G239" s="27">
+        <v>1</v>
+      </c>
+      <c r="H239" s="27">
+        <v>57</v>
+      </c>
+      <c r="I239" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J239" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N239" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A240" s="27">
+        <v>241</v>
+      </c>
+      <c r="B240" s="27">
+        <v>241</v>
+      </c>
+      <c r="C240" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="D240" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E240" s="27">
+        <v>1</v>
+      </c>
+      <c r="F240" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G240" s="27">
+        <v>1</v>
+      </c>
+      <c r="H240" s="27">
+        <v>58</v>
+      </c>
+      <c r="I240" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J240" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N240" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A241" s="27">
+        <v>242</v>
+      </c>
+      <c r="B241" s="27">
+        <v>242</v>
+      </c>
+      <c r="C241" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="D241" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E241" s="27">
+        <v>1</v>
+      </c>
+      <c r="F241" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G241" s="27">
+        <v>1</v>
+      </c>
+      <c r="H241" s="27">
+        <v>59</v>
+      </c>
+      <c r="I241" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J241" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N241" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A242" s="27">
+        <v>243</v>
+      </c>
+      <c r="B242" s="27">
+        <v>243</v>
+      </c>
+      <c r="C242" s="27" t="s">
+        <v>735</v>
+      </c>
+      <c r="D242" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E242" s="27">
+        <v>1</v>
+      </c>
+      <c r="F242" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G242" s="27">
+        <v>1</v>
+      </c>
+      <c r="H242" s="27">
+        <v>60</v>
+      </c>
+      <c r="I242" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J242" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N242" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A243" s="27">
+        <v>244</v>
+      </c>
+      <c r="B243" s="27">
+        <v>244</v>
+      </c>
+      <c r="C243" s="27" t="s">
+        <v>736</v>
+      </c>
+      <c r="D243" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E243" s="27">
+        <v>1</v>
+      </c>
+      <c r="F243" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G243" s="27">
+        <v>1</v>
+      </c>
+      <c r="H243" s="27">
+        <v>61</v>
+      </c>
+      <c r="I243" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J243" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N243" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A244" s="27">
+        <v>245</v>
+      </c>
+      <c r="B244" s="27">
+        <v>245</v>
+      </c>
+      <c r="C244" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="D244" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E244" s="27">
+        <v>1</v>
+      </c>
+      <c r="F244" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G244" s="27">
+        <v>1</v>
+      </c>
+      <c r="H244" s="27">
+        <v>62</v>
+      </c>
+      <c r="I244" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J244" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N244" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A245" s="27">
+        <v>246</v>
+      </c>
+      <c r="B245" s="27">
+        <v>246</v>
+      </c>
+      <c r="C245" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="D245" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E245" s="27">
+        <v>1</v>
+      </c>
+      <c r="F245" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G245" s="27">
+        <v>1</v>
+      </c>
+      <c r="H245" s="27">
+        <v>63</v>
+      </c>
+      <c r="I245" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J245" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N245" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A246" s="27">
+        <v>247</v>
+      </c>
+      <c r="B246" s="27">
+        <v>247</v>
+      </c>
+      <c r="C246" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="D246" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E246" s="27">
+        <v>1</v>
+      </c>
+      <c r="F246" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G246" s="27">
+        <v>1</v>
+      </c>
+      <c r="H246" s="27">
+        <v>64</v>
+      </c>
+      <c r="I246" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J246" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N246" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A247" s="27">
+        <v>248</v>
+      </c>
+      <c r="B247" s="27">
+        <v>248</v>
+      </c>
+      <c r="C247" s="27" t="s">
+        <v>740</v>
+      </c>
+      <c r="D247" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E247" s="27">
+        <v>1</v>
+      </c>
+      <c r="F247" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G247" s="27">
+        <v>1</v>
+      </c>
+      <c r="H247" s="27">
+        <v>65</v>
+      </c>
+      <c r="I247" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J247" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N247" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A248" s="27">
+        <v>249</v>
+      </c>
+      <c r="B248" s="27">
+        <v>249</v>
+      </c>
+      <c r="C248" s="27" t="s">
+        <v>741</v>
+      </c>
+      <c r="D248" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E248" s="27">
+        <v>1</v>
+      </c>
+      <c r="F248" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G248" s="27">
+        <v>1</v>
+      </c>
+      <c r="H248" s="27">
+        <v>66</v>
+      </c>
+      <c r="I248" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J248" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N248" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A249" s="27">
+        <v>250</v>
+      </c>
+      <c r="B249" s="27">
+        <v>250</v>
+      </c>
+      <c r="C249" s="27" t="s">
+        <v>742</v>
+      </c>
+      <c r="D249" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E249" s="27">
+        <v>1</v>
+      </c>
+      <c r="F249" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G249" s="27">
+        <v>1</v>
+      </c>
+      <c r="H249" s="27">
+        <v>67</v>
+      </c>
+      <c r="I249" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J249" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N249" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A250" s="27">
+        <v>251</v>
+      </c>
+      <c r="B250" s="27">
+        <v>251</v>
+      </c>
+      <c r="C250" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="D250" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E250" s="27">
+        <v>1</v>
+      </c>
+      <c r="F250" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G250" s="27">
+        <v>1</v>
+      </c>
+      <c r="H250" s="27">
+        <v>68</v>
+      </c>
+      <c r="I250" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="J250" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="N250" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A251" s="27">
+        <v>252</v>
+      </c>
+      <c r="B251" s="27">
+        <v>252</v>
+      </c>
+      <c r="C251" s="28" t="s">
+        <v>667</v>
+      </c>
+      <c r="D251" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E251" s="27">
+        <v>1</v>
+      </c>
+      <c r="F251" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G251" s="27">
+        <v>1</v>
+      </c>
+      <c r="H251" s="27">
+        <v>69</v>
+      </c>
+      <c r="I251" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J251" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N251" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A252" s="27">
+        <v>253</v>
+      </c>
+      <c r="B252" s="27">
+        <v>253</v>
+      </c>
+      <c r="C252" s="28" t="s">
+        <v>684</v>
+      </c>
+      <c r="D252" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E252" s="27">
+        <v>1</v>
+      </c>
+      <c r="F252" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G252" s="27">
+        <v>1</v>
+      </c>
+      <c r="H252" s="27">
+        <v>70</v>
+      </c>
+      <c r="I252" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J252" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N252" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A253" s="27">
+        <v>254</v>
+      </c>
+      <c r="B253" s="27">
+        <v>254</v>
+      </c>
+      <c r="C253" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="D253" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E253" s="27">
+        <v>1</v>
+      </c>
+      <c r="F253" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G253" s="27">
+        <v>1</v>
+      </c>
+      <c r="H253" s="27">
+        <v>71</v>
+      </c>
+      <c r="I253" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J253" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N253" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A254" s="27">
+        <v>255</v>
+      </c>
+      <c r="B254" s="27">
+        <v>255</v>
+      </c>
+      <c r="C254" s="28" t="s">
+        <v>686</v>
+      </c>
+      <c r="D254" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E254" s="27">
+        <v>1</v>
+      </c>
+      <c r="F254" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G254" s="27">
+        <v>1</v>
+      </c>
+      <c r="H254" s="27">
+        <v>72</v>
+      </c>
+      <c r="I254" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J254" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N254" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A255" s="27">
+        <v>256</v>
+      </c>
+      <c r="B255" s="27">
+        <v>256</v>
+      </c>
+      <c r="C255" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="D255" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E255" s="27">
+        <v>1</v>
+      </c>
+      <c r="F255" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G255" s="27">
+        <v>1</v>
+      </c>
+      <c r="H255" s="27">
+        <v>73</v>
+      </c>
+      <c r="I255" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J255" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N255" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A256" s="27">
+        <v>257</v>
+      </c>
+      <c r="B256" s="27">
+        <v>257</v>
+      </c>
+      <c r="C256" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="D256" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E256" s="27">
+        <v>1</v>
+      </c>
+      <c r="F256" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G256" s="27">
+        <v>1</v>
+      </c>
+      <c r="H256" s="27">
+        <v>74</v>
+      </c>
+      <c r="I256" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J256" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N256" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A257" s="27">
+        <v>258</v>
+      </c>
+      <c r="B257" s="27">
+        <v>258</v>
+      </c>
+      <c r="C257" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="D257" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E257" s="27">
+        <v>1</v>
+      </c>
+      <c r="F257" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G257" s="27">
+        <v>1</v>
+      </c>
+      <c r="H257" s="27">
+        <v>75</v>
+      </c>
+      <c r="I257" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J257" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N257" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A258" s="27">
+        <v>259</v>
+      </c>
+      <c r="B258" s="27">
+        <v>259</v>
+      </c>
+      <c r="C258" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="D258" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E258" s="27">
+        <v>1</v>
+      </c>
+      <c r="F258" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G258" s="27">
+        <v>1</v>
+      </c>
+      <c r="H258" s="27">
+        <v>76</v>
+      </c>
+      <c r="I258" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J258" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N258" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A259" s="27">
+        <v>260</v>
+      </c>
+      <c r="B259" s="27">
+        <v>260</v>
+      </c>
+      <c r="C259" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="D259" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E259" s="27">
+        <v>1</v>
+      </c>
+      <c r="F259" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G259" s="27">
+        <v>1</v>
+      </c>
+      <c r="H259" s="27">
+        <v>77</v>
+      </c>
+      <c r="I259" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J259" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N259" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A260" s="27">
+        <v>261</v>
+      </c>
+      <c r="B260" s="27">
+        <v>261</v>
+      </c>
+      <c r="C260" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="D260" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E260" s="27">
+        <v>1</v>
+      </c>
+      <c r="F260" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G260" s="27">
+        <v>1</v>
+      </c>
+      <c r="H260" s="27">
+        <v>78</v>
+      </c>
+      <c r="I260" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J260" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N260" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A261" s="27">
+        <v>262</v>
+      </c>
+      <c r="B261" s="27">
+        <v>262</v>
+      </c>
+      <c r="C261" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="D261" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E261" s="27">
+        <v>1</v>
+      </c>
+      <c r="F261" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G261" s="27">
+        <v>1</v>
+      </c>
+      <c r="H261" s="27">
+        <v>79</v>
+      </c>
+      <c r="I261" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J261" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N261" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A262" s="27">
+        <v>263</v>
+      </c>
+      <c r="B262" s="27">
+        <v>263</v>
+      </c>
+      <c r="C262" s="28" t="s">
+        <v>694</v>
+      </c>
+      <c r="D262" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E262" s="27">
+        <v>1</v>
+      </c>
+      <c r="F262" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G262" s="27">
+        <v>1</v>
+      </c>
+      <c r="H262" s="27">
+        <v>80</v>
+      </c>
+      <c r="I262" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J262" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N262" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A263" s="27">
+        <v>264</v>
+      </c>
+      <c r="B263" s="27">
+        <v>264</v>
+      </c>
+      <c r="C263" s="28" t="s">
+        <v>695</v>
+      </c>
+      <c r="D263" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E263" s="27">
+        <v>1</v>
+      </c>
+      <c r="F263" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G263" s="27">
+        <v>1</v>
+      </c>
+      <c r="H263" s="27">
+        <v>81</v>
+      </c>
+      <c r="I263" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J263" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N263" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A264" s="27">
+        <v>265</v>
+      </c>
+      <c r="B264" s="27">
+        <v>265</v>
+      </c>
+      <c r="C264" s="28" t="s">
+        <v>696</v>
+      </c>
+      <c r="D264" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E264" s="27">
+        <v>1</v>
+      </c>
+      <c r="F264" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G264" s="27">
+        <v>1</v>
+      </c>
+      <c r="H264" s="27">
+        <v>82</v>
+      </c>
+      <c r="I264" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J264" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N264" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A265" s="27">
+        <v>266</v>
+      </c>
+      <c r="B265" s="27">
+        <v>266</v>
+      </c>
+      <c r="C265" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="D265" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E265" s="27">
+        <v>1</v>
+      </c>
+      <c r="F265" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G265" s="27">
+        <v>1</v>
+      </c>
+      <c r="H265" s="27">
+        <v>83</v>
+      </c>
+      <c r="I265" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J265" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N265" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A266" s="27">
+        <v>267</v>
+      </c>
+      <c r="B266" s="27">
+        <v>267</v>
+      </c>
+      <c r="C266" s="28" t="s">
+        <v>698</v>
+      </c>
+      <c r="D266" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E266" s="27">
+        <v>1</v>
+      </c>
+      <c r="F266" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G266" s="27">
+        <v>1</v>
+      </c>
+      <c r="H266" s="27">
+        <v>84</v>
+      </c>
+      <c r="I266" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J266" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N266" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A267" s="27">
+        <v>268</v>
+      </c>
+      <c r="B267" s="27">
+        <v>268</v>
+      </c>
+      <c r="C267" s="28" t="s">
+        <v>699</v>
+      </c>
+      <c r="D267" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E267" s="27">
+        <v>1</v>
+      </c>
+      <c r="F267" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G267" s="27">
+        <v>1</v>
+      </c>
+      <c r="H267" s="27">
+        <v>85</v>
+      </c>
+      <c r="I267" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J267" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N267" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A268" s="27">
+        <v>269</v>
+      </c>
+      <c r="B268" s="27">
+        <v>269</v>
+      </c>
+      <c r="C268" s="28" t="s">
+        <v>700</v>
+      </c>
+      <c r="D268" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E268" s="27">
+        <v>1</v>
+      </c>
+      <c r="F268" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G268" s="27">
+        <v>1</v>
+      </c>
+      <c r="H268" s="27">
+        <v>86</v>
+      </c>
+      <c r="I268" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J268" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N268" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A269" s="27">
+        <v>270</v>
+      </c>
+      <c r="B269" s="27">
+        <v>270</v>
+      </c>
+      <c r="C269" s="28" t="s">
+        <v>701</v>
+      </c>
+      <c r="D269" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E269" s="27">
+        <v>1</v>
+      </c>
+      <c r="F269" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G269" s="27">
+        <v>1</v>
+      </c>
+      <c r="H269" s="27">
+        <v>87</v>
+      </c>
+      <c r="I269" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J269" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N269" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A270" s="27">
+        <v>271</v>
+      </c>
+      <c r="B270" s="27">
+        <v>271</v>
+      </c>
+      <c r="C270" s="28" t="s">
+        <v>702</v>
+      </c>
+      <c r="D270" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E270" s="27">
+        <v>1</v>
+      </c>
+      <c r="F270" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G270" s="27">
+        <v>1</v>
+      </c>
+      <c r="H270" s="27">
+        <v>88</v>
+      </c>
+      <c r="I270" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J270" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N270" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A271" s="27">
+        <v>272</v>
+      </c>
+      <c r="B271" s="27">
+        <v>272</v>
+      </c>
+      <c r="C271" s="28" t="s">
+        <v>703</v>
+      </c>
+      <c r="D271" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E271" s="27">
+        <v>1</v>
+      </c>
+      <c r="F271" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G271" s="27">
+        <v>1</v>
+      </c>
+      <c r="H271" s="27">
+        <v>89</v>
+      </c>
+      <c r="I271" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J271" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N271" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A272" s="27">
+        <v>273</v>
+      </c>
+      <c r="B272" s="27">
+        <v>273</v>
+      </c>
+      <c r="C272" s="28" t="s">
+        <v>704</v>
+      </c>
+      <c r="D272" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E272" s="27">
+        <v>1</v>
+      </c>
+      <c r="F272" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G272" s="27">
+        <v>1</v>
+      </c>
+      <c r="H272" s="27">
+        <v>90</v>
+      </c>
+      <c r="I272" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J272" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N272" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A273" s="27">
+        <v>274</v>
+      </c>
+      <c r="B273" s="27">
+        <v>274</v>
+      </c>
+      <c r="C273" s="28" t="s">
+        <v>705</v>
+      </c>
+      <c r="D273" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E273" s="27">
+        <v>1</v>
+      </c>
+      <c r="F273" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G273" s="27">
+        <v>1</v>
+      </c>
+      <c r="H273" s="27">
+        <v>91</v>
+      </c>
+      <c r="I273" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J273" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N273" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A274" s="27">
+        <v>275</v>
+      </c>
+      <c r="B274" s="27">
+        <v>275</v>
+      </c>
+      <c r="C274" s="28" t="s">
+        <v>706</v>
+      </c>
+      <c r="D274" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E274" s="27">
+        <v>1</v>
+      </c>
+      <c r="F274" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G274" s="27">
+        <v>1</v>
+      </c>
+      <c r="H274" s="27">
+        <v>92</v>
+      </c>
+      <c r="I274" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J274" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N274" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A275" s="27">
+        <v>276</v>
+      </c>
+      <c r="B275" s="27">
+        <v>276</v>
+      </c>
+      <c r="C275" s="28" t="s">
+        <v>707</v>
+      </c>
+      <c r="D275" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E275" s="27">
+        <v>1</v>
+      </c>
+      <c r="F275" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G275" s="27">
+        <v>1</v>
+      </c>
+      <c r="H275" s="27">
+        <v>93</v>
+      </c>
+      <c r="I275" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J275" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N275" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A276" s="27">
+        <v>277</v>
+      </c>
+      <c r="B276" s="27">
+        <v>277</v>
+      </c>
+      <c r="C276" s="28" t="s">
+        <v>708</v>
+      </c>
+      <c r="D276" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E276" s="27">
+        <v>1</v>
+      </c>
+      <c r="F276" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G276" s="27">
+        <v>1</v>
+      </c>
+      <c r="H276" s="27">
+        <v>94</v>
+      </c>
+      <c r="I276" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J276" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N276" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A277" s="27">
+        <v>278</v>
+      </c>
+      <c r="B277" s="27">
+        <v>278</v>
+      </c>
+      <c r="C277" s="28" t="s">
+        <v>709</v>
+      </c>
+      <c r="D277" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E277" s="27">
+        <v>1</v>
+      </c>
+      <c r="F277" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G277" s="27">
+        <v>1</v>
+      </c>
+      <c r="H277" s="27">
+        <v>95</v>
+      </c>
+      <c r="I277" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J277" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N277" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A278" s="27">
+        <v>279</v>
+      </c>
+      <c r="B278" s="27">
+        <v>279</v>
+      </c>
+      <c r="C278" s="28" t="s">
+        <v>710</v>
+      </c>
+      <c r="D278" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E278" s="27">
+        <v>1</v>
+      </c>
+      <c r="F278" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G278" s="27">
+        <v>1</v>
+      </c>
+      <c r="H278" s="27">
+        <v>96</v>
+      </c>
+      <c r="I278" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J278" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N278" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A279" s="27">
+        <v>280</v>
+      </c>
+      <c r="B279" s="27">
+        <v>280</v>
+      </c>
+      <c r="C279" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="D279" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E279" s="27">
+        <v>1</v>
+      </c>
+      <c r="F279" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G279" s="27">
+        <v>1</v>
+      </c>
+      <c r="H279" s="27">
+        <v>97</v>
+      </c>
+      <c r="I279" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J279" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N279" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A280" s="27">
+        <v>281</v>
+      </c>
+      <c r="B280" s="27">
+        <v>281</v>
+      </c>
+      <c r="C280" s="28" t="s">
+        <v>712</v>
+      </c>
+      <c r="D280" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E280" s="27">
+        <v>1</v>
+      </c>
+      <c r="F280" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G280" s="27">
+        <v>1</v>
+      </c>
+      <c r="H280" s="27">
+        <v>98</v>
+      </c>
+      <c r="I280" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J280" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N280" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A281" s="27">
+        <v>282</v>
+      </c>
+      <c r="B281" s="27">
+        <v>282</v>
+      </c>
+      <c r="C281" s="28" t="s">
+        <v>713</v>
+      </c>
+      <c r="D281" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E281" s="27">
+        <v>1</v>
+      </c>
+      <c r="F281" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G281" s="27">
+        <v>1</v>
+      </c>
+      <c r="H281" s="27">
+        <v>99</v>
+      </c>
+      <c r="I281" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J281" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N281" s="27">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.24/item_config.xlsx
+++ b/config_11.24/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="663">
   <si>
     <t>id|行号</t>
   </si>
@@ -2659,30 +2659,33 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>火鸡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>感恩节稀有</t>
   </si>
   <si>
-    <t>感恩节稀有</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>感恩节史诗</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>感恩节史诗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>感恩节传说</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>感恩节传说</t>
+    <t>稀有宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hjhhl_iocn_jt</t>
+  </si>
+  <si>
+    <t>火鸡掉落物</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3215,9 +3218,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J186" sqref="J186"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S186" sqref="S186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9258,6 +9261,9 @@
       <c r="E183" s="2">
         <v>1</v>
       </c>
+      <c r="F183" s="2" t="s">
+        <v>661</v>
+      </c>
       <c r="G183" s="2">
         <v>1</v>
       </c>
@@ -9265,97 +9271,97 @@
         <v>33</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A184" s="2">
+    <row r="184" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="26">
         <v>183</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="26">
         <v>183</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="26" t="s">
         <v>652</v>
       </c>
-      <c r="D184" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E184" s="2">
-        <v>1</v>
-      </c>
-      <c r="G184" s="2">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2">
+      <c r="D184" s="26">
+        <v>-1</v>
+      </c>
+      <c r="E184" s="26">
+        <v>1</v>
+      </c>
+      <c r="G184" s="26">
+        <v>1</v>
+      </c>
+      <c r="H184" s="26">
         <v>33</v>
       </c>
-      <c r="I184" s="5" t="s">
+      <c r="I184" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="J184" s="26" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="26">
+        <v>184</v>
+      </c>
+      <c r="B185" s="26">
+        <v>184</v>
+      </c>
+      <c r="C185" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="D185" s="26">
+        <v>-1</v>
+      </c>
+      <c r="E185" s="26">
+        <v>1</v>
+      </c>
+      <c r="G185" s="26">
+        <v>1</v>
+      </c>
+      <c r="H185" s="26">
+        <v>33</v>
+      </c>
+      <c r="I185" s="27" t="s">
+        <v>659</v>
+      </c>
+      <c r="J185" s="27" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="26">
+        <v>185</v>
+      </c>
+      <c r="B186" s="26">
+        <v>185</v>
+      </c>
+      <c r="C186" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="D186" s="26">
+        <v>-1</v>
+      </c>
+      <c r="E186" s="26">
+        <v>1</v>
+      </c>
+      <c r="G186" s="26">
+        <v>1</v>
+      </c>
+      <c r="H186" s="26">
+        <v>33</v>
+      </c>
+      <c r="I186" s="27" t="s">
+        <v>660</v>
+      </c>
+      <c r="J186" s="27" t="s">
         <v>657</v>
-      </c>
-      <c r="J184" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A185" s="2">
-        <v>184</v>
-      </c>
-      <c r="B185" s="2">
-        <v>184</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D185" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E185" s="2">
-        <v>1</v>
-      </c>
-      <c r="G185" s="2">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2">
-        <v>33</v>
-      </c>
-      <c r="I185" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="J185" s="5" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A186" s="2">
-        <v>185</v>
-      </c>
-      <c r="B186" s="2">
-        <v>185</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="D186" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E186" s="2">
-        <v>1</v>
-      </c>
-      <c r="G186" s="2">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2">
-        <v>33</v>
-      </c>
-      <c r="I186" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="J186" s="5" t="s">
-        <v>661</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.24/item_config.xlsx
+++ b/config_11.24/item_config.xlsx
@@ -2639,53 +2639,53 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>感恩节火鸡道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩节稀有</t>
+  </si>
+  <si>
+    <t>感恩节史诗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩节传说</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说宝箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>hjhhl_iocn_jt</t>
+  </si>
+  <si>
+    <t>火鸡掉落物</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gej_ss</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>prop_gej_hj</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>感恩节火鸡道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_gej_xy</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_gej_ss</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_gej_cs</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩节稀有</t>
-  </si>
-  <si>
-    <t>感恩节史诗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩节传说</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有宝箱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>史诗宝箱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说宝箱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>hjhhl_iocn_jt</t>
-  </si>
-  <si>
-    <t>火鸡掉落物</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2850,7 +2850,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2936,6 +2936,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3218,9 +3221,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S186" sqref="S186"/>
+      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9245,36 +9248,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A183" s="2">
+    <row r="183" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="28">
         <v>182</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="28">
         <v>182</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="29" t="s">
+        <v>660</v>
+      </c>
+      <c r="D183" s="28">
+        <v>-1</v>
+      </c>
+      <c r="E183" s="28">
+        <v>1</v>
+      </c>
+      <c r="F183" s="28" t="s">
+        <v>657</v>
+      </c>
+      <c r="G183" s="28">
+        <v>0</v>
+      </c>
+      <c r="H183" s="28">
+        <v>33</v>
+      </c>
+      <c r="I183" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="J183" s="28" t="s">
         <v>650</v>
-      </c>
-      <c r="D183" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E183" s="2">
-        <v>1</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="G183" s="2">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2">
-        <v>33</v>
-      </c>
-      <c r="I183" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="J183" s="2" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="184" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
@@ -9284,8 +9287,8 @@
       <c r="B184" s="26">
         <v>183</v>
       </c>
-      <c r="C184" s="26" t="s">
-        <v>652</v>
+      <c r="C184" s="27" t="s">
+        <v>661</v>
       </c>
       <c r="D184" s="26">
         <v>-1</v>
@@ -9300,10 +9303,10 @@
         <v>33</v>
       </c>
       <c r="I184" s="27" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="J184" s="26" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="185" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
@@ -9313,8 +9316,8 @@
       <c r="B185" s="26">
         <v>184</v>
       </c>
-      <c r="C185" s="26" t="s">
-        <v>653</v>
+      <c r="C185" s="27" t="s">
+        <v>659</v>
       </c>
       <c r="D185" s="26">
         <v>-1</v>
@@ -9329,10 +9332,10 @@
         <v>33</v>
       </c>
       <c r="I185" s="27" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="J185" s="27" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="186" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
@@ -9342,8 +9345,8 @@
       <c r="B186" s="26">
         <v>185</v>
       </c>
-      <c r="C186" s="26" t="s">
-        <v>654</v>
+      <c r="C186" s="27" t="s">
+        <v>662</v>
       </c>
       <c r="D186" s="26">
         <v>-1</v>
@@ -9358,10 +9361,10 @@
         <v>33</v>
       </c>
       <c r="I186" s="27" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J186" s="27" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.24/item_config.xlsx
+++ b/config_11.24/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="659">
   <si>
     <t>id|行号</t>
   </si>
@@ -2457,22 +2457,6 @@
   </si>
   <si>
     <t>新人专享豪华宝箱</t>
-  </si>
-  <si>
-    <t>prop_guess_apple_cz</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_sd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldfd_icon_shui</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldfd_zpg_icon_cc</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>prop_11.11_cjq</t>
@@ -2764,7 +2748,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2786,12 +2770,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2850,7 +2828,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2923,9 +2901,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2933,12 +2908,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3219,11 +3188,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q186"/>
+  <dimension ref="A1:Q184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6374,7 +6343,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D97" s="2">
         <v>-1</v>
@@ -8499,7 +8468,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -8508,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G160" s="11">
         <v>1</v>
@@ -8517,13 +8486,13 @@
         <v>34</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="161" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8534,7 +8503,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D161" s="11">
         <v>-1</v>
@@ -8543,7 +8512,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G161" s="11">
         <v>1</v>
@@ -8552,13 +8521,13 @@
         <v>34</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="162" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8569,7 +8538,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D162" s="11">
         <v>-1</v>
@@ -8665,7 +8634,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D165" s="11">
         <v>-1</v>
@@ -8674,7 +8643,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="G165" s="11">
         <v>1</v>
@@ -8683,10 +8652,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="166" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8697,7 +8666,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D166" s="11">
         <v>-1</v>
@@ -8706,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G166" s="11">
         <v>1</v>
@@ -8715,10 +8684,10 @@
         <v>34</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="167" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8811,7 +8780,7 @@
         <v>34</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="J169" s="12" t="s">
         <v>572</v>
@@ -8825,7 +8794,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D170" s="11">
         <v>-1</v>
@@ -8834,7 +8803,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="G170" s="11">
         <v>1</v>
@@ -8843,10 +8812,10 @@
         <v>34</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="171" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8857,7 +8826,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D171" s="11">
         <v>-1</v>
@@ -8866,7 +8835,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G171" s="11">
         <v>1</v>
@@ -8875,10 +8844,10 @@
         <v>34</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="172" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8898,7 +8867,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G172" s="11">
         <v>0</v>
@@ -9009,7 +8978,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="176" spans="1:12" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="11">
         <v>175</v>
       </c>
@@ -9017,135 +8986,145 @@
         <v>175</v>
       </c>
       <c r="C176" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="D176" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E176" s="23">
+        <v>1</v>
+      </c>
+      <c r="F176" s="23" t="s">
         <v>603</v>
-      </c>
-      <c r="D176" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E176" s="23">
-        <v>1</v>
-      </c>
-      <c r="F176" s="25" t="s">
-        <v>604</v>
       </c>
       <c r="G176" s="23">
         <v>0</v>
       </c>
       <c r="H176" s="23">
-        <v>36</v>
-      </c>
-      <c r="I176" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="J176" s="25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="I176" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="J176" s="23" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="11">
         <v>176</v>
       </c>
       <c r="B177" s="11">
         <v>176</v>
       </c>
-      <c r="C177" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="D177" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E177" s="23">
-        <v>1</v>
-      </c>
-      <c r="F177" s="23" t="s">
-        <v>605</v>
-      </c>
-      <c r="G177" s="23">
+      <c r="C177" s="25" t="s">
+        <v>628</v>
+      </c>
+      <c r="D177" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E177" s="25">
+        <v>1</v>
+      </c>
+      <c r="F177" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="G177" s="25">
         <v>0</v>
       </c>
-      <c r="H177" s="23">
-        <v>38</v>
+      <c r="H177" s="25">
+        <v>33</v>
       </c>
       <c r="I177" s="25" t="s">
-        <v>444</v>
+        <v>630</v>
       </c>
       <c r="J177" s="25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="11">
         <v>177</v>
       </c>
       <c r="B178" s="11">
         <v>177</v>
       </c>
-      <c r="C178" s="27" t="s">
-        <v>606</v>
-      </c>
-      <c r="D178" s="26">
-        <v>-1</v>
-      </c>
-      <c r="E178" s="26">
-        <v>1</v>
-      </c>
-      <c r="F178" s="26" t="s">
-        <v>607</v>
-      </c>
-      <c r="G178" s="26">
-        <v>0</v>
-      </c>
-      <c r="H178" s="26">
-        <v>33</v>
-      </c>
-      <c r="I178" s="26" t="s">
-        <v>610</v>
-      </c>
-      <c r="J178" s="26" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C178" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="D178" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E178" s="2">
+        <v>1</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="G178" s="2">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2">
+        <v>32</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="K178" s="5"/>
+      <c r="L178" s="5"/>
+      <c r="N178" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="11">
         <v>178</v>
       </c>
       <c r="B179" s="11">
         <v>178</v>
       </c>
-      <c r="C179" s="28" t="s">
-        <v>632</v>
-      </c>
-      <c r="D179" s="28">
-        <v>-1</v>
-      </c>
-      <c r="E179" s="28">
-        <v>1</v>
-      </c>
-      <c r="F179" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="G179" s="28">
-        <v>0</v>
-      </c>
-      <c r="H179" s="28">
+      <c r="C179" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="D179" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E179" s="2">
+        <v>1</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="G179" s="2">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2">
         <v>33</v>
       </c>
-      <c r="I179" s="28" t="s">
-        <v>634</v>
-      </c>
-      <c r="J179" s="28" t="s">
-        <v>635</v>
+      <c r="I179" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="J179" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
+      <c r="N179" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="2">
+      <c r="A180" s="11">
         <v>179</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="11">
         <v>179</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D180" s="2">
         <v>-1</v>
@@ -9154,19 +9133,19 @@
         <v>1</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G180" s="2">
         <v>1</v>
       </c>
       <c r="H180" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
@@ -9174,197 +9153,123 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="2">
+    <row r="181" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="11">
         <v>180</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="11">
         <v>180</v>
       </c>
-      <c r="C181" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="D181" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E181" s="2">
-        <v>1</v>
-      </c>
-      <c r="F181" s="5" t="s">
+      <c r="C181" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="D181" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E181" s="25">
+        <v>1</v>
+      </c>
+      <c r="F181" s="25" t="s">
+        <v>653</v>
+      </c>
+      <c r="G181" s="25">
+        <v>0</v>
+      </c>
+      <c r="H181" s="25">
+        <v>33</v>
+      </c>
+      <c r="I181" s="25" t="s">
+        <v>654</v>
+      </c>
+      <c r="J181" s="25" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="11">
+        <v>181</v>
+      </c>
+      <c r="B182" s="11">
+        <v>181</v>
+      </c>
+      <c r="C182" s="24" t="s">
+        <v>657</v>
+      </c>
+      <c r="D182" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E182" s="23">
+        <v>1</v>
+      </c>
+      <c r="G182" s="23">
+        <v>1</v>
+      </c>
+      <c r="H182" s="23">
+        <v>33</v>
+      </c>
+      <c r="I182" s="24" t="s">
+        <v>650</v>
+      </c>
+      <c r="J182" s="23" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="11">
+        <v>182</v>
+      </c>
+      <c r="B183" s="11">
+        <v>182</v>
+      </c>
+      <c r="C183" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="D183" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E183" s="23">
+        <v>1</v>
+      </c>
+      <c r="G183" s="23">
+        <v>1</v>
+      </c>
+      <c r="H183" s="23">
+        <v>33</v>
+      </c>
+      <c r="I183" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="J183" s="24" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="11">
+        <v>183</v>
+      </c>
+      <c r="B184" s="11">
+        <v>183</v>
+      </c>
+      <c r="C184" s="24" t="s">
+        <v>658</v>
+      </c>
+      <c r="D184" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E184" s="23">
+        <v>1</v>
+      </c>
+      <c r="G184" s="23">
+        <v>1</v>
+      </c>
+      <c r="H184" s="23">
+        <v>33</v>
+      </c>
+      <c r="I184" s="24" t="s">
+        <v>652</v>
+      </c>
+      <c r="J184" s="24" t="s">
         <v>649</v>
-      </c>
-      <c r="G181" s="2">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2">
-        <v>33</v>
-      </c>
-      <c r="I181" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="J181" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="K181" s="5"/>
-      <c r="L181" s="5"/>
-      <c r="N181" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="2">
-        <v>181</v>
-      </c>
-      <c r="B182" s="2">
-        <v>181</v>
-      </c>
-      <c r="C182" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="D182" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E182" s="2">
-        <v>1</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="G182" s="2">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2">
-        <v>33</v>
-      </c>
-      <c r="I182" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="J182" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="K182" s="5"/>
-      <c r="L182" s="5"/>
-      <c r="N182" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="28">
-        <v>182</v>
-      </c>
-      <c r="B183" s="28">
-        <v>182</v>
-      </c>
-      <c r="C183" s="29" t="s">
-        <v>660</v>
-      </c>
-      <c r="D183" s="28">
-        <v>-1</v>
-      </c>
-      <c r="E183" s="28">
-        <v>1</v>
-      </c>
-      <c r="F183" s="28" t="s">
-        <v>657</v>
-      </c>
-      <c r="G183" s="28">
-        <v>0</v>
-      </c>
-      <c r="H183" s="28">
-        <v>33</v>
-      </c>
-      <c r="I183" s="28" t="s">
-        <v>658</v>
-      </c>
-      <c r="J183" s="28" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="26">
-        <v>183</v>
-      </c>
-      <c r="B184" s="26">
-        <v>183</v>
-      </c>
-      <c r="C184" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="D184" s="26">
-        <v>-1</v>
-      </c>
-      <c r="E184" s="26">
-        <v>1</v>
-      </c>
-      <c r="G184" s="26">
-        <v>1</v>
-      </c>
-      <c r="H184" s="26">
-        <v>33</v>
-      </c>
-      <c r="I184" s="27" t="s">
-        <v>654</v>
-      </c>
-      <c r="J184" s="26" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="26">
-        <v>184</v>
-      </c>
-      <c r="B185" s="26">
-        <v>184</v>
-      </c>
-      <c r="C185" s="27" t="s">
-        <v>659</v>
-      </c>
-      <c r="D185" s="26">
-        <v>-1</v>
-      </c>
-      <c r="E185" s="26">
-        <v>1</v>
-      </c>
-      <c r="G185" s="26">
-        <v>1</v>
-      </c>
-      <c r="H185" s="26">
-        <v>33</v>
-      </c>
-      <c r="I185" s="27" t="s">
-        <v>655</v>
-      </c>
-      <c r="J185" s="27" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="26">
-        <v>185</v>
-      </c>
-      <c r="B186" s="26">
-        <v>185</v>
-      </c>
-      <c r="C186" s="27" t="s">
-        <v>662</v>
-      </c>
-      <c r="D186" s="26">
-        <v>-1</v>
-      </c>
-      <c r="E186" s="26">
-        <v>1</v>
-      </c>
-      <c r="G186" s="26">
-        <v>1</v>
-      </c>
-      <c r="H186" s="26">
-        <v>33</v>
-      </c>
-      <c r="I186" s="27" t="s">
-        <v>656</v>
-      </c>
-      <c r="J186" s="27" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.24/item_config.xlsx
+++ b/config_11.24/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="665">
   <si>
     <t>id|行号</t>
   </si>
@@ -2682,6 +2682,18 @@
   </si>
   <si>
     <t>stgc_icon_bx2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_036_gelb","prop_gej_xy"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_036_gelb","prop_gej_ss"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_036_gelb","prop_gej_cs"</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3202,9 +3214,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F184" sqref="F184"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O184" sqref="O184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9022,7 +9034,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="177" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="11">
         <v>176</v>
       </c>
@@ -9054,7 +9066,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178" s="11">
         <v>177</v>
       </c>
@@ -9091,7 +9103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179" s="11">
         <v>178</v>
       </c>
@@ -9128,7 +9140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180" s="11">
         <v>179</v>
       </c>
@@ -9165,7 +9177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="11">
         <v>180</v>
       </c>
@@ -9197,7 +9209,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="182" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="11">
         <v>181</v>
       </c>
@@ -9228,8 +9240,14 @@
       <c r="J182" s="23" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L182" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="O182" s="23">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="11">
         <v>182</v>
       </c>
@@ -9260,8 +9278,14 @@
       <c r="J183" s="24" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L183" s="23" t="s">
+        <v>663</v>
+      </c>
+      <c r="O183" s="23">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="11">
         <v>183</v>
       </c>
@@ -9291,6 +9315,12 @@
       </c>
       <c r="J184" s="24" t="s">
         <v>649</v>
+      </c>
+      <c r="L184" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="O184" s="23">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.24/item_config.xlsx
+++ b/config_11.24/item_config.xlsx
@@ -3583,8 +3583,8 @@
   <dimension ref="A1:Q281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C185" sqref="C185"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10918,10 +10918,10 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="27">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B220" s="27">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C220" s="28" t="s">
         <v>774</v>
@@ -10953,10 +10953,10 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="27">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B221" s="27">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C221" s="27" t="s">
         <v>714</v>
@@ -10988,10 +10988,10 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="27">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B222" s="27">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C222" s="27" t="s">
         <v>715</v>
@@ -11023,10 +11023,10 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="27">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B223" s="27">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C223" s="27" t="s">
         <v>716</v>
@@ -11058,10 +11058,10 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="27">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B224" s="27">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C224" s="27" t="s">
         <v>717</v>
@@ -11093,10 +11093,10 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="27">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B225" s="27">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C225" s="27" t="s">
         <v>718</v>
@@ -11128,10 +11128,10 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="27">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B226" s="27">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C226" s="27" t="s">
         <v>719</v>
@@ -11163,10 +11163,10 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="27">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B227" s="27">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C227" s="27" t="s">
         <v>720</v>
@@ -11198,10 +11198,10 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="27">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B228" s="27">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C228" s="27" t="s">
         <v>721</v>
@@ -11233,10 +11233,10 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="27">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B229" s="27">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C229" s="27" t="s">
         <v>722</v>
@@ -11268,10 +11268,10 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="27">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B230" s="27">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C230" s="27" t="s">
         <v>723</v>
@@ -11303,10 +11303,10 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="27">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B231" s="27">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C231" s="27" t="s">
         <v>724</v>
@@ -11338,10 +11338,10 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="27">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B232" s="27">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C232" s="27" t="s">
         <v>725</v>
@@ -11373,10 +11373,10 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="27">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B233" s="27">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C233" s="27" t="s">
         <v>726</v>
@@ -11408,10 +11408,10 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="27">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B234" s="27">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C234" s="27" t="s">
         <v>727</v>
@@ -11443,10 +11443,10 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="27">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B235" s="27">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C235" s="27" t="s">
         <v>728</v>
@@ -11478,10 +11478,10 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="27">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B236" s="27">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C236" s="27" t="s">
         <v>729</v>
@@ -11513,10 +11513,10 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="27">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B237" s="27">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C237" s="27" t="s">
         <v>730</v>
@@ -11548,10 +11548,10 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="27">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B238" s="27">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C238" s="27" t="s">
         <v>731</v>
@@ -11583,10 +11583,10 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="27">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B239" s="27">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C239" s="27" t="s">
         <v>732</v>
@@ -11618,10 +11618,10 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="27">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B240" s="27">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C240" s="27" t="s">
         <v>733</v>
@@ -11653,10 +11653,10 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="27">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B241" s="27">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C241" s="27" t="s">
         <v>734</v>
@@ -11688,10 +11688,10 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="27">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B242" s="27">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C242" s="27" t="s">
         <v>735</v>
@@ -11723,10 +11723,10 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="27">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B243" s="27">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C243" s="27" t="s">
         <v>736</v>
@@ -11758,10 +11758,10 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="27">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B244" s="27">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C244" s="27" t="s">
         <v>737</v>
@@ -11793,10 +11793,10 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="27">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B245" s="27">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C245" s="27" t="s">
         <v>738</v>
@@ -11828,10 +11828,10 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="27">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B246" s="27">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C246" s="27" t="s">
         <v>739</v>
@@ -11863,10 +11863,10 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="27">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B247" s="27">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C247" s="27" t="s">
         <v>740</v>
@@ -11898,10 +11898,10 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="27">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B248" s="27">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C248" s="27" t="s">
         <v>741</v>
@@ -11933,10 +11933,10 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="27">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B249" s="27">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C249" s="27" t="s">
         <v>742</v>
@@ -11968,10 +11968,10 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="27">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B250" s="27">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C250" s="27" t="s">
         <v>743</v>
@@ -12003,10 +12003,10 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="27">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B251" s="27">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C251" s="28" t="s">
         <v>667</v>
@@ -12038,10 +12038,10 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="27">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B252" s="27">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C252" s="28" t="s">
         <v>684</v>
@@ -12073,10 +12073,10 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="27">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B253" s="27">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C253" s="28" t="s">
         <v>685</v>
@@ -12108,10 +12108,10 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="27">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B254" s="27">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C254" s="28" t="s">
         <v>686</v>
@@ -12143,10 +12143,10 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="27">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B255" s="27">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C255" s="28" t="s">
         <v>687</v>
@@ -12178,10 +12178,10 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="27">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B256" s="27">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C256" s="28" t="s">
         <v>688</v>
@@ -12213,10 +12213,10 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="27">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B257" s="27">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C257" s="28" t="s">
         <v>689</v>
@@ -12248,10 +12248,10 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="27">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B258" s="27">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C258" s="28" t="s">
         <v>690</v>
@@ -12283,10 +12283,10 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="27">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B259" s="27">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C259" s="28" t="s">
         <v>691</v>
@@ -12318,10 +12318,10 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="27">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B260" s="27">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C260" s="28" t="s">
         <v>692</v>
@@ -12353,10 +12353,10 @@
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="27">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B261" s="27">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C261" s="28" t="s">
         <v>693</v>
@@ -12388,10 +12388,10 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="27">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B262" s="27">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C262" s="28" t="s">
         <v>694</v>
@@ -12423,10 +12423,10 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" s="27">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B263" s="27">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C263" s="28" t="s">
         <v>695</v>
@@ -12458,10 +12458,10 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" s="27">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B264" s="27">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C264" s="28" t="s">
         <v>696</v>
@@ -12493,10 +12493,10 @@
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" s="27">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B265" s="27">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C265" s="28" t="s">
         <v>697</v>
@@ -12528,10 +12528,10 @@
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" s="27">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B266" s="27">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C266" s="28" t="s">
         <v>698</v>
@@ -12563,10 +12563,10 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" s="27">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B267" s="27">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C267" s="28" t="s">
         <v>699</v>
@@ -12598,10 +12598,10 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" s="27">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B268" s="27">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C268" s="28" t="s">
         <v>700</v>
@@ -12633,10 +12633,10 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" s="27">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B269" s="27">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C269" s="28" t="s">
         <v>701</v>
@@ -12668,10 +12668,10 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" s="27">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B270" s="27">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C270" s="28" t="s">
         <v>702</v>
@@ -12703,10 +12703,10 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" s="27">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B271" s="27">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C271" s="28" t="s">
         <v>703</v>
@@ -12738,10 +12738,10 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" s="27">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B272" s="27">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C272" s="28" t="s">
         <v>704</v>
@@ -12773,10 +12773,10 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" s="27">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B273" s="27">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C273" s="28" t="s">
         <v>705</v>
@@ -12808,10 +12808,10 @@
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" s="27">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B274" s="27">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C274" s="28" t="s">
         <v>706</v>
@@ -12843,10 +12843,10 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" s="27">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B275" s="27">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C275" s="28" t="s">
         <v>707</v>
@@ -12878,10 +12878,10 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" s="27">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B276" s="27">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C276" s="28" t="s">
         <v>708</v>
@@ -12913,10 +12913,10 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" s="27">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B277" s="27">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C277" s="28" t="s">
         <v>709</v>
@@ -12948,10 +12948,10 @@
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" s="27">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B278" s="27">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C278" s="28" t="s">
         <v>710</v>
@@ -12983,10 +12983,10 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" s="27">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B279" s="27">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C279" s="28" t="s">
         <v>711</v>
@@ -13018,10 +13018,10 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" s="27">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B280" s="27">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C280" s="28" t="s">
         <v>712</v>
@@ -13053,10 +13053,10 @@
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" s="27">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B281" s="27">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C281" s="28" t="s">
         <v>713</v>
